--- a/files/tabel/tabel-2018-02.xlsx
+++ b/files/tabel/tabel-2018-02.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="155">
   <si>
     <t>(подпись)</t>
   </si>
@@ -222,7 +222,10 @@
     <t>Управление информатизации образования и информационной безопасности</t>
   </si>
   <si>
-    <t>20/04/2018</t>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>04</t>
   </si>
   <si>
     <t>Аникин Е.А.</t>
@@ -23635,7 +23638,7 @@
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="66"/>
@@ -23649,19 +23652,19 @@
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" s="68"/>
       <c r="Q18" s="68"/>
       <c r="R18" s="69"/>
       <c r="S18" s="67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T18" s="68"/>
       <c r="U18" s="68"/>
       <c r="V18" s="69"/>
       <c r="W18" s="67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X18" s="68"/>
       <c r="Y18" s="68"/>
@@ -23670,27 +23673,27 @@
       <c r="AB18" s="68"/>
       <c r="AC18" s="69"/>
       <c r="AD18" s="61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE18" s="61"/>
       <c r="AF18" s="61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG18" s="61"/>
       <c r="AH18" s="6269" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI18" s="61"/>
       <c r="AJ18" s="6270" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK18" s="61"/>
       <c r="AL18" s="61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM18" s="61"/>
       <c r="AN18" s="61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO18" s="61"/>
       <c r="AP18" s="61"/>
@@ -23712,7 +23715,7 @@
       <c r="BF18" s="61"/>
       <c r="BG18" s="61"/>
       <c r="BH18" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI18" s="62"/>
       <c r="BJ18" s="62"/>
@@ -23750,7 +23753,7 @@
       <c r="CP18" s="61"/>
       <c r="CQ18" s="61"/>
       <c r="CR18" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="CS18" s="62"/>
       <c r="CT18" s="62"/>
@@ -23795,11 +23798,11 @@
       </c>
       <c r="AG19" s="61"/>
       <c r="AH19" s="6269" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI19" s="61"/>
       <c r="AJ19" s="6270" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK19" s="61"/>
       <c r="AL19" s="61" t="n">
@@ -23875,7 +23878,7 @@
       </c>
       <c r="B20" s="132"/>
       <c r="C20" s="133" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="134"/>
       <c r="E20" s="135"/>
@@ -23889,19 +23892,19 @@
       <c r="M20" s="143"/>
       <c r="N20" s="144"/>
       <c r="O20" s="145" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" s="146"/>
       <c r="Q20" s="147"/>
       <c r="R20" s="148"/>
       <c r="S20" s="149" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T20" s="150"/>
       <c r="U20" s="151"/>
       <c r="V20" s="152"/>
       <c r="W20" s="153" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X20" s="154"/>
       <c r="Y20" s="155"/>
@@ -23922,97 +23925,97 @@
       <c r="AN20" s="170"/>
       <c r="AO20" s="171"/>
       <c r="AP20" s="172" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ20" s="173"/>
       <c r="AR20" s="174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS20" s="175"/>
       <c r="AT20" s="176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU20" s="177"/>
       <c r="AV20" s="6271" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW20" s="179"/>
       <c r="AX20" s="6272" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY20" s="181"/>
       <c r="AZ20" s="182" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA20" s="183"/>
       <c r="BB20" s="184" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC20" s="185"/>
       <c r="BD20" s="186" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE20" s="187"/>
       <c r="BF20" s="188" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG20" s="189"/>
       <c r="BH20" s="190" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BI20" s="191"/>
       <c r="BJ20" s="192"/>
       <c r="BK20" s="193"/>
       <c r="BL20" s="194" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM20" s="195"/>
       <c r="BN20" s="6273" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO20" s="197"/>
       <c r="BP20" s="6274" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ20" s="199"/>
       <c r="BR20" s="200" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS20" s="201"/>
       <c r="BT20" s="202" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU20" s="203"/>
       <c r="BV20" s="204" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW20" s="205"/>
       <c r="BX20" s="206" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY20" s="207"/>
       <c r="BZ20" s="6275" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA20" s="209"/>
       <c r="CB20" s="6276" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC20" s="211"/>
       <c r="CD20" s="6277" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE20" s="213"/>
       <c r="CF20" s="214" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG20" s="215"/>
       <c r="CH20" s="216" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI20" s="217"/>
       <c r="CJ20" s="218" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK20" s="219"/>
       <c r="CL20" s="220"/>
@@ -24022,7 +24025,7 @@
       <c r="CP20" s="224"/>
       <c r="CQ20" s="225"/>
       <c r="CR20" s="226" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CS20" s="227"/>
       <c r="CT20" s="228"/>
@@ -24083,11 +24086,11 @@
       </c>
       <c r="AU21" s="276"/>
       <c r="AV21" s="6271" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW21" s="278"/>
       <c r="AX21" s="6272" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY21" s="280"/>
       <c r="AZ21" s="281" t="n">
@@ -24115,11 +24118,11 @@
       </c>
       <c r="BM21" s="294"/>
       <c r="BN21" s="6273" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO21" s="296"/>
       <c r="BP21" s="6274" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ21" s="298"/>
       <c r="BR21" s="299" t="n">
@@ -24139,15 +24142,15 @@
       </c>
       <c r="BY21" s="306"/>
       <c r="BZ21" s="6275" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA21" s="308"/>
       <c r="CB21" s="6276" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC21" s="310"/>
       <c r="CD21" s="6277" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE21" s="312"/>
       <c r="CF21" s="313" t="n">
@@ -24179,7 +24182,7 @@
       </c>
       <c r="B22" s="330"/>
       <c r="C22" s="331" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="332"/>
       <c r="E22" s="333"/>
@@ -24193,19 +24196,19 @@
       <c r="M22" s="341"/>
       <c r="N22" s="342"/>
       <c r="O22" s="343" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P22" s="344"/>
       <c r="Q22" s="345"/>
       <c r="R22" s="346"/>
       <c r="S22" s="347" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T22" s="348"/>
       <c r="U22" s="349"/>
       <c r="V22" s="350"/>
       <c r="W22" s="351" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X22" s="352"/>
       <c r="Y22" s="353"/>
@@ -24214,121 +24217,121 @@
       <c r="AB22" s="356"/>
       <c r="AC22" s="357"/>
       <c r="AD22" s="358" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE22" s="359"/>
       <c r="AF22" s="360" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG22" s="361"/>
       <c r="AH22" s="6278" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI22" s="363"/>
       <c r="AJ22" s="6279" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK22" s="365"/>
       <c r="AL22" s="366" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM22" s="367"/>
       <c r="AN22" s="368" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO22" s="369"/>
       <c r="AP22" s="370" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ22" s="371"/>
       <c r="AR22" s="372" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS22" s="373"/>
       <c r="AT22" s="374" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU22" s="375"/>
       <c r="AV22" s="6280" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW22" s="377"/>
       <c r="AX22" s="6281" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY22" s="379"/>
       <c r="AZ22" s="380" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA22" s="381"/>
       <c r="BB22" s="382" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC22" s="383"/>
       <c r="BD22" s="384" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE22" s="385"/>
       <c r="BF22" s="386" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG22" s="387"/>
       <c r="BH22" s="388" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI22" s="389"/>
       <c r="BJ22" s="390"/>
       <c r="BK22" s="391"/>
       <c r="BL22" s="392" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM22" s="393"/>
       <c r="BN22" s="6282" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO22" s="395"/>
       <c r="BP22" s="6283" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ22" s="397"/>
       <c r="BR22" s="398" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS22" s="399"/>
       <c r="BT22" s="400" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU22" s="401"/>
       <c r="BV22" s="402" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW22" s="403"/>
       <c r="BX22" s="404" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY22" s="405"/>
       <c r="BZ22" s="6284" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA22" s="407"/>
       <c r="CB22" s="6285" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC22" s="409"/>
       <c r="CD22" s="6286" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE22" s="411"/>
       <c r="CF22" s="412" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG22" s="413"/>
       <c r="CH22" s="414" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI22" s="415"/>
       <c r="CJ22" s="416" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK22" s="417"/>
       <c r="CL22" s="418"/>
@@ -24338,7 +24341,7 @@
       <c r="CP22" s="422"/>
       <c r="CQ22" s="423"/>
       <c r="CR22" s="424" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS22" s="425"/>
       <c r="CT22" s="426"/>
@@ -24383,11 +24386,11 @@
       </c>
       <c r="AG23" s="460"/>
       <c r="AH23" s="6278" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI23" s="462"/>
       <c r="AJ23" s="6279" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK23" s="464"/>
       <c r="AL23" s="465" t="n">
@@ -24411,11 +24414,11 @@
       </c>
       <c r="AU23" s="474"/>
       <c r="AV23" s="6280" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW23" s="476"/>
       <c r="AX23" s="6281" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY23" s="478"/>
       <c r="AZ23" s="479" t="n">
@@ -24443,11 +24446,11 @@
       </c>
       <c r="BM23" s="492"/>
       <c r="BN23" s="6282" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO23" s="494"/>
       <c r="BP23" s="6283" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ23" s="496"/>
       <c r="BR23" s="497" t="n">
@@ -24467,15 +24470,15 @@
       </c>
       <c r="BY23" s="504"/>
       <c r="BZ23" s="6284" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA23" s="506"/>
       <c r="CB23" s="6285" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC23" s="508"/>
       <c r="CD23" s="6286" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE23" s="510"/>
       <c r="CF23" s="511" t="n">
@@ -24507,7 +24510,7 @@
       </c>
       <c r="B24" s="528"/>
       <c r="C24" s="529" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="530"/>
       <c r="E24" s="531"/>
@@ -24521,19 +24524,19 @@
       <c r="M24" s="539"/>
       <c r="N24" s="540"/>
       <c r="O24" s="541" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" s="542"/>
       <c r="Q24" s="543"/>
       <c r="R24" s="544"/>
       <c r="S24" s="545" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T24" s="546"/>
       <c r="U24" s="547"/>
       <c r="V24" s="548"/>
       <c r="W24" s="549" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X24" s="550"/>
       <c r="Y24" s="551"/>
@@ -24542,121 +24545,121 @@
       <c r="AB24" s="554"/>
       <c r="AC24" s="555"/>
       <c r="AD24" s="556" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE24" s="557"/>
       <c r="AF24" s="558" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG24" s="559"/>
       <c r="AH24" s="6287" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI24" s="561"/>
       <c r="AJ24" s="6288" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK24" s="563"/>
       <c r="AL24" s="564" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM24" s="565"/>
       <c r="AN24" s="566" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO24" s="567"/>
       <c r="AP24" s="568" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ24" s="569"/>
       <c r="AR24" s="570" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS24" s="571"/>
       <c r="AT24" s="572" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU24" s="573"/>
       <c r="AV24" s="6289" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW24" s="575"/>
       <c r="AX24" s="6290" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY24" s="577"/>
       <c r="AZ24" s="578" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA24" s="579"/>
       <c r="BB24" s="580" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC24" s="581"/>
       <c r="BD24" s="582" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE24" s="583"/>
       <c r="BF24" s="584" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG24" s="585"/>
       <c r="BH24" s="586" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI24" s="587"/>
       <c r="BJ24" s="588"/>
       <c r="BK24" s="589"/>
       <c r="BL24" s="590" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM24" s="591"/>
       <c r="BN24" s="6291" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO24" s="593"/>
       <c r="BP24" s="6292" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ24" s="595"/>
       <c r="BR24" s="596" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS24" s="597"/>
       <c r="BT24" s="598" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU24" s="599"/>
       <c r="BV24" s="600" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW24" s="601"/>
       <c r="BX24" s="602" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY24" s="603"/>
       <c r="BZ24" s="6293" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA24" s="605"/>
       <c r="CB24" s="6294" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC24" s="607"/>
       <c r="CD24" s="6295" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE24" s="609"/>
       <c r="CF24" s="610" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG24" s="611"/>
       <c r="CH24" s="612" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI24" s="613"/>
       <c r="CJ24" s="614" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK24" s="615"/>
       <c r="CL24" s="616"/>
@@ -24666,7 +24669,7 @@
       <c r="CP24" s="620"/>
       <c r="CQ24" s="621"/>
       <c r="CR24" s="622" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS24" s="623"/>
       <c r="CT24" s="624"/>
@@ -24711,11 +24714,11 @@
       </c>
       <c r="AG25" s="658"/>
       <c r="AH25" s="6287" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI25" s="660"/>
       <c r="AJ25" s="6288" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK25" s="662"/>
       <c r="AL25" s="663" t="n">
@@ -24739,11 +24742,11 @@
       </c>
       <c r="AU25" s="672"/>
       <c r="AV25" s="6289" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW25" s="674"/>
       <c r="AX25" s="6290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY25" s="676"/>
       <c r="AZ25" s="677" t="n">
@@ -24771,11 +24774,11 @@
       </c>
       <c r="BM25" s="690"/>
       <c r="BN25" s="6291" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO25" s="692"/>
       <c r="BP25" s="6292" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ25" s="694"/>
       <c r="BR25" s="695" t="n">
@@ -24795,15 +24798,15 @@
       </c>
       <c r="BY25" s="702"/>
       <c r="BZ25" s="6293" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA25" s="704"/>
       <c r="CB25" s="6294" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC25" s="706"/>
       <c r="CD25" s="6295" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE25" s="708"/>
       <c r="CF25" s="709" t="n">
@@ -24835,7 +24838,7 @@
       </c>
       <c r="B26" s="726"/>
       <c r="C26" s="727" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D26" s="728"/>
       <c r="E26" s="729"/>
@@ -24849,19 +24852,19 @@
       <c r="M26" s="737"/>
       <c r="N26" s="738"/>
       <c r="O26" s="739" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" s="740"/>
       <c r="Q26" s="741"/>
       <c r="R26" s="742"/>
       <c r="S26" s="743" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T26" s="744"/>
       <c r="U26" s="745"/>
       <c r="V26" s="746"/>
       <c r="W26" s="747" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X26" s="748"/>
       <c r="Y26" s="749"/>
@@ -24870,121 +24873,121 @@
       <c r="AB26" s="752"/>
       <c r="AC26" s="753"/>
       <c r="AD26" s="6296" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE26" s="755"/>
       <c r="AF26" s="6297" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG26" s="757"/>
       <c r="AH26" s="6298" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI26" s="759"/>
       <c r="AJ26" s="6299" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK26" s="761"/>
       <c r="AL26" s="6300" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM26" s="763"/>
       <c r="AN26" s="6301" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO26" s="765"/>
       <c r="AP26" s="6302" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AQ26" s="767"/>
       <c r="AR26" s="6303" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AS26" s="769"/>
       <c r="AT26" s="6304" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AU26" s="771"/>
       <c r="AV26" s="6305" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AW26" s="773"/>
       <c r="AX26" s="6306" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AY26" s="775"/>
       <c r="AZ26" s="6307" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BA26" s="777"/>
       <c r="BB26" s="6308" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BC26" s="779"/>
       <c r="BD26" s="6309" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BE26" s="781"/>
       <c r="BF26" s="6310" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BG26" s="783"/>
       <c r="BH26" s="784" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BI26" s="785"/>
       <c r="BJ26" s="786"/>
       <c r="BK26" s="787"/>
       <c r="BL26" s="6311" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BM26" s="789"/>
       <c r="BN26" s="6312" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BO26" s="791"/>
       <c r="BP26" s="6313" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BQ26" s="793"/>
       <c r="BR26" s="6314" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BS26" s="795"/>
       <c r="BT26" s="6315" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BU26" s="797"/>
       <c r="BV26" s="6316" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BW26" s="799"/>
       <c r="BX26" s="6317" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BY26" s="801"/>
       <c r="BZ26" s="6318" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CA26" s="803"/>
       <c r="CB26" s="6319" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CC26" s="805"/>
       <c r="CD26" s="6320" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CE26" s="807"/>
       <c r="CF26" s="6321" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CG26" s="809"/>
       <c r="CH26" s="6322" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CI26" s="811"/>
       <c r="CJ26" s="6323" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CK26" s="813"/>
       <c r="CL26" s="814"/>
@@ -24994,7 +24997,7 @@
       <c r="CP26" s="818"/>
       <c r="CQ26" s="819"/>
       <c r="CR26" s="820" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CS26" s="821"/>
       <c r="CT26" s="822"/>
@@ -25031,63 +25034,63 @@
       <c r="AB27" s="851"/>
       <c r="AC27" s="852"/>
       <c r="AD27" s="6296" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE27" s="854"/>
       <c r="AF27" s="6297" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG27" s="856"/>
       <c r="AH27" s="6298" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI27" s="858"/>
       <c r="AJ27" s="6299" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK27" s="860"/>
       <c r="AL27" s="6300" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AM27" s="862"/>
       <c r="AN27" s="6301" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AO27" s="864"/>
       <c r="AP27" s="6302" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AQ27" s="866"/>
       <c r="AR27" s="6303" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AS27" s="868"/>
       <c r="AT27" s="6304" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU27" s="870"/>
       <c r="AV27" s="6305" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW27" s="872"/>
       <c r="AX27" s="6306" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY27" s="874"/>
       <c r="AZ27" s="6307" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BA27" s="876"/>
       <c r="BB27" s="6308" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BC27" s="878"/>
       <c r="BD27" s="6309" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BE27" s="880"/>
       <c r="BF27" s="6310" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BG27" s="882"/>
       <c r="BH27" s="883"/>
@@ -25095,55 +25098,55 @@
       <c r="BJ27" s="885"/>
       <c r="BK27" s="886"/>
       <c r="BL27" s="6311" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BM27" s="888"/>
       <c r="BN27" s="6312" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO27" s="890"/>
       <c r="BP27" s="6313" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ27" s="892"/>
       <c r="BR27" s="6314" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BS27" s="894"/>
       <c r="BT27" s="6315" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BU27" s="896"/>
       <c r="BV27" s="6316" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BW27" s="898"/>
       <c r="BX27" s="6317" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BY27" s="900"/>
       <c r="BZ27" s="6318" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA27" s="902"/>
       <c r="CB27" s="6319" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC27" s="904"/>
       <c r="CD27" s="6320" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE27" s="906"/>
       <c r="CF27" s="6321" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CG27" s="908"/>
       <c r="CH27" s="6322" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CI27" s="910"/>
       <c r="CJ27" s="6323" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CK27" s="912"/>
       <c r="CL27" s="913"/>
@@ -25163,7 +25166,7 @@
       </c>
       <c r="B28" s="924"/>
       <c r="C28" s="925" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="926"/>
       <c r="E28" s="927"/>
@@ -25177,19 +25180,19 @@
       <c r="M28" s="935"/>
       <c r="N28" s="936"/>
       <c r="O28" s="937" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" s="938"/>
       <c r="Q28" s="939"/>
       <c r="R28" s="940"/>
       <c r="S28" s="941" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T28" s="942"/>
       <c r="U28" s="943"/>
       <c r="V28" s="944"/>
       <c r="W28" s="945" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X28" s="946"/>
       <c r="Y28" s="947"/>
@@ -25198,121 +25201,121 @@
       <c r="AB28" s="950"/>
       <c r="AC28" s="951"/>
       <c r="AD28" s="952" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE28" s="953"/>
       <c r="AF28" s="954" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG28" s="955"/>
       <c r="AH28" s="6324" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI28" s="957"/>
       <c r="AJ28" s="6325" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK28" s="959"/>
       <c r="AL28" s="960" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM28" s="961"/>
       <c r="AN28" s="962" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO28" s="963"/>
       <c r="AP28" s="964" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ28" s="965"/>
       <c r="AR28" s="966" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS28" s="967"/>
       <c r="AT28" s="968" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU28" s="969"/>
       <c r="AV28" s="6326" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW28" s="971"/>
       <c r="AX28" s="6327" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY28" s="973"/>
       <c r="AZ28" s="974" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA28" s="975"/>
       <c r="BB28" s="976" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC28" s="977"/>
       <c r="BD28" s="978" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE28" s="979"/>
       <c r="BF28" s="980" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG28" s="981"/>
       <c r="BH28" s="982" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI28" s="983"/>
       <c r="BJ28" s="984"/>
       <c r="BK28" s="985"/>
       <c r="BL28" s="986" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM28" s="987"/>
       <c r="BN28" s="6328" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO28" s="989"/>
       <c r="BP28" s="6329" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ28" s="991"/>
       <c r="BR28" s="992" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS28" s="993"/>
       <c r="BT28" s="994" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU28" s="995"/>
       <c r="BV28" s="996" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW28" s="997"/>
       <c r="BX28" s="998" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY28" s="999"/>
       <c r="BZ28" s="6330" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA28" s="1001"/>
       <c r="CB28" s="6331" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC28" s="1003"/>
       <c r="CD28" s="6332" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE28" s="1005"/>
       <c r="CF28" s="1006" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG28" s="1007"/>
       <c r="CH28" s="1008" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI28" s="1009"/>
       <c r="CJ28" s="1010" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK28" s="1011"/>
       <c r="CL28" s="1012"/>
@@ -25322,7 +25325,7 @@
       <c r="CP28" s="1016"/>
       <c r="CQ28" s="1017"/>
       <c r="CR28" s="1018" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS28" s="1019"/>
       <c r="CT28" s="1020"/>
@@ -25367,11 +25370,11 @@
       </c>
       <c r="AG29" s="1054"/>
       <c r="AH29" s="6324" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI29" s="1056"/>
       <c r="AJ29" s="6325" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK29" s="1058"/>
       <c r="AL29" s="1059" t="n">
@@ -25395,11 +25398,11 @@
       </c>
       <c r="AU29" s="1068"/>
       <c r="AV29" s="6326" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW29" s="1070"/>
       <c r="AX29" s="6327" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY29" s="1072"/>
       <c r="AZ29" s="1073" t="n">
@@ -25427,11 +25430,11 @@
       </c>
       <c r="BM29" s="1086"/>
       <c r="BN29" s="6328" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO29" s="1088"/>
       <c r="BP29" s="6329" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ29" s="1090"/>
       <c r="BR29" s="1091" t="n">
@@ -25451,15 +25454,15 @@
       </c>
       <c r="BY29" s="1098"/>
       <c r="BZ29" s="6330" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA29" s="1100"/>
       <c r="CB29" s="6331" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC29" s="1102"/>
       <c r="CD29" s="6332" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE29" s="1104"/>
       <c r="CF29" s="1105" t="n">
@@ -25491,7 +25494,7 @@
       </c>
       <c r="B30" s="1122"/>
       <c r="C30" s="1123" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="1124"/>
       <c r="E30" s="1125"/>
@@ -25505,19 +25508,19 @@
       <c r="M30" s="1133"/>
       <c r="N30" s="1134"/>
       <c r="O30" s="1135" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P30" s="1136"/>
       <c r="Q30" s="1137"/>
       <c r="R30" s="1138"/>
       <c r="S30" s="1139" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T30" s="1140"/>
       <c r="U30" s="1141"/>
       <c r="V30" s="1142"/>
       <c r="W30" s="1143" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X30" s="1144"/>
       <c r="Y30" s="1145"/>
@@ -25526,121 +25529,121 @@
       <c r="AB30" s="1148"/>
       <c r="AC30" s="1149"/>
       <c r="AD30" s="1150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE30" s="1151"/>
       <c r="AF30" s="1152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG30" s="1153"/>
       <c r="AH30" s="6333" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI30" s="1155"/>
       <c r="AJ30" s="6334" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK30" s="1157"/>
       <c r="AL30" s="1158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM30" s="1159"/>
       <c r="AN30" s="1160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO30" s="1161"/>
       <c r="AP30" s="1162" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ30" s="1163"/>
       <c r="AR30" s="1164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS30" s="1165"/>
       <c r="AT30" s="1166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU30" s="1167"/>
       <c r="AV30" s="6335" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW30" s="1169"/>
       <c r="AX30" s="6336" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY30" s="1171"/>
       <c r="AZ30" s="1172" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA30" s="1173"/>
       <c r="BB30" s="1174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC30" s="1175"/>
       <c r="BD30" s="1176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE30" s="1177"/>
       <c r="BF30" s="1178" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG30" s="1179"/>
       <c r="BH30" s="1180" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI30" s="1181"/>
       <c r="BJ30" s="1182"/>
       <c r="BK30" s="1183"/>
       <c r="BL30" s="1184" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM30" s="1185"/>
       <c r="BN30" s="6337" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO30" s="1187"/>
       <c r="BP30" s="6338" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ30" s="1189"/>
       <c r="BR30" s="1190" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS30" s="1191"/>
       <c r="BT30" s="1192" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU30" s="1193"/>
       <c r="BV30" s="1194" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW30" s="1195"/>
       <c r="BX30" s="1196" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY30" s="1197"/>
       <c r="BZ30" s="6339" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA30" s="1199"/>
       <c r="CB30" s="6340" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC30" s="1201"/>
       <c r="CD30" s="6341" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE30" s="1203"/>
       <c r="CF30" s="1204" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG30" s="1205"/>
       <c r="CH30" s="1206" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI30" s="1207"/>
       <c r="CJ30" s="1208" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK30" s="1209"/>
       <c r="CL30" s="1210"/>
@@ -25650,7 +25653,7 @@
       <c r="CP30" s="1214"/>
       <c r="CQ30" s="1215"/>
       <c r="CR30" s="1216" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS30" s="1217"/>
       <c r="CT30" s="1218"/>
@@ -25695,11 +25698,11 @@
       </c>
       <c r="AG31" s="1252"/>
       <c r="AH31" s="6333" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI31" s="1254"/>
       <c r="AJ31" s="6334" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK31" s="1256"/>
       <c r="AL31" s="1257" t="n">
@@ -25723,11 +25726,11 @@
       </c>
       <c r="AU31" s="1266"/>
       <c r="AV31" s="6335" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW31" s="1268"/>
       <c r="AX31" s="6336" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY31" s="1270"/>
       <c r="AZ31" s="1271" t="n">
@@ -25755,11 +25758,11 @@
       </c>
       <c r="BM31" s="1284"/>
       <c r="BN31" s="6337" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO31" s="1286"/>
       <c r="BP31" s="6338" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ31" s="1288"/>
       <c r="BR31" s="1289" t="n">
@@ -25779,15 +25782,15 @@
       </c>
       <c r="BY31" s="1296"/>
       <c r="BZ31" s="6339" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA31" s="1298"/>
       <c r="CB31" s="6340" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC31" s="1300"/>
       <c r="CD31" s="6341" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE31" s="1302"/>
       <c r="CF31" s="1303" t="n">
@@ -25819,7 +25822,7 @@
       </c>
       <c r="B32" s="1320"/>
       <c r="C32" s="1321" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D32" s="1322"/>
       <c r="E32" s="1323"/>
@@ -25833,19 +25836,19 @@
       <c r="M32" s="1331"/>
       <c r="N32" s="1332"/>
       <c r="O32" s="1333" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P32" s="1334"/>
       <c r="Q32" s="1335"/>
       <c r="R32" s="1336"/>
       <c r="S32" s="1337" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T32" s="1338"/>
       <c r="U32" s="1339"/>
       <c r="V32" s="1340"/>
       <c r="W32" s="1341" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X32" s="1342"/>
       <c r="Y32" s="1343"/>
@@ -25854,121 +25857,121 @@
       <c r="AB32" s="1346"/>
       <c r="AC32" s="1347"/>
       <c r="AD32" s="6342" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE32" s="1349"/>
       <c r="AF32" s="6343" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG32" s="1351"/>
       <c r="AH32" s="6344" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI32" s="1353"/>
       <c r="AJ32" s="6345" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK32" s="1355"/>
       <c r="AL32" s="6346" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM32" s="1357"/>
       <c r="AN32" s="6347" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO32" s="1359"/>
       <c r="AP32" s="6348" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AQ32" s="1361"/>
       <c r="AR32" s="6349" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AS32" s="1363"/>
       <c r="AT32" s="6350" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AU32" s="1365"/>
       <c r="AV32" s="6351" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AW32" s="1367"/>
       <c r="AX32" s="6352" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AY32" s="1369"/>
       <c r="AZ32" s="6353" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BA32" s="1371"/>
       <c r="BB32" s="6354" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BC32" s="1373"/>
       <c r="BD32" s="6355" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BE32" s="1375"/>
       <c r="BF32" s="6356" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BG32" s="1377"/>
       <c r="BH32" s="1378" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BI32" s="1379"/>
       <c r="BJ32" s="1380"/>
       <c r="BK32" s="1381"/>
       <c r="BL32" s="6357" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BM32" s="1383"/>
       <c r="BN32" s="6358" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BO32" s="1385"/>
       <c r="BP32" s="6359" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BQ32" s="1387"/>
       <c r="BR32" s="6360" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BS32" s="1389"/>
       <c r="BT32" s="6361" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BU32" s="1391"/>
       <c r="BV32" s="6362" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BW32" s="1393"/>
       <c r="BX32" s="6363" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BY32" s="1395"/>
       <c r="BZ32" s="6364" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CA32" s="1397"/>
       <c r="CB32" s="6365" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CC32" s="1399"/>
       <c r="CD32" s="6366" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CE32" s="1401"/>
       <c r="CF32" s="6367" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CG32" s="1403"/>
       <c r="CH32" s="6368" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CI32" s="1405"/>
       <c r="CJ32" s="6369" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CK32" s="1407"/>
       <c r="CL32" s="1408"/>
@@ -25978,7 +25981,7 @@
       <c r="CP32" s="1412"/>
       <c r="CQ32" s="1413"/>
       <c r="CR32" s="1414" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CS32" s="1415"/>
       <c r="CT32" s="1416"/>
@@ -26015,63 +26018,63 @@
       <c r="AB33" s="1445"/>
       <c r="AC33" s="1446"/>
       <c r="AD33" s="6342" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE33" s="1448"/>
       <c r="AF33" s="6343" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG33" s="1450"/>
       <c r="AH33" s="6344" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI33" s="1452"/>
       <c r="AJ33" s="6345" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK33" s="1454"/>
       <c r="AL33" s="6346" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AM33" s="1456"/>
       <c r="AN33" s="6347" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AO33" s="1458"/>
       <c r="AP33" s="6348" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AQ33" s="1460"/>
       <c r="AR33" s="6349" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AS33" s="1462"/>
       <c r="AT33" s="6350" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU33" s="1464"/>
       <c r="AV33" s="6351" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW33" s="1466"/>
       <c r="AX33" s="6352" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY33" s="1468"/>
       <c r="AZ33" s="6353" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BA33" s="1470"/>
       <c r="BB33" s="6354" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BC33" s="1472"/>
       <c r="BD33" s="6355" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BE33" s="1474"/>
       <c r="BF33" s="6356" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BG33" s="1476"/>
       <c r="BH33" s="1477"/>
@@ -26079,55 +26082,55 @@
       <c r="BJ33" s="1479"/>
       <c r="BK33" s="1480"/>
       <c r="BL33" s="6357" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BM33" s="1482"/>
       <c r="BN33" s="6358" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO33" s="1484"/>
       <c r="BP33" s="6359" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ33" s="1486"/>
       <c r="BR33" s="6360" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BS33" s="1488"/>
       <c r="BT33" s="6361" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BU33" s="1490"/>
       <c r="BV33" s="6362" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BW33" s="1492"/>
       <c r="BX33" s="6363" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BY33" s="1494"/>
       <c r="BZ33" s="6364" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA33" s="1496"/>
       <c r="CB33" s="6365" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC33" s="1498"/>
       <c r="CD33" s="6366" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE33" s="1500"/>
       <c r="CF33" s="6367" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CG33" s="1502"/>
       <c r="CH33" s="6368" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CI33" s="1504"/>
       <c r="CJ33" s="6369" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CK33" s="1506"/>
       <c r="CL33" s="1507"/>
@@ -26147,7 +26150,7 @@
       </c>
       <c r="B34" s="1518"/>
       <c r="C34" s="1519" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D34" s="1520"/>
       <c r="E34" s="1521"/>
@@ -26161,19 +26164,19 @@
       <c r="M34" s="1529"/>
       <c r="N34" s="1530"/>
       <c r="O34" s="1531" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" s="1532"/>
       <c r="Q34" s="1533"/>
       <c r="R34" s="1534"/>
       <c r="S34" s="1535" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T34" s="1536"/>
       <c r="U34" s="1537"/>
       <c r="V34" s="1538"/>
       <c r="W34" s="1539" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X34" s="1540"/>
       <c r="Y34" s="1541"/>
@@ -26182,121 +26185,121 @@
       <c r="AB34" s="1544"/>
       <c r="AC34" s="1545"/>
       <c r="AD34" s="1546" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE34" s="1547"/>
       <c r="AF34" s="1548" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG34" s="1549"/>
       <c r="AH34" s="6370" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI34" s="1551"/>
       <c r="AJ34" s="6371" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK34" s="1553"/>
       <c r="AL34" s="1554" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM34" s="1555"/>
       <c r="AN34" s="1556" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO34" s="1557"/>
       <c r="AP34" s="1558" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ34" s="1559"/>
       <c r="AR34" s="1560" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS34" s="1561"/>
       <c r="AT34" s="1562" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU34" s="1563"/>
       <c r="AV34" s="6372" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW34" s="1565"/>
       <c r="AX34" s="6373" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY34" s="1567"/>
       <c r="AZ34" s="1568" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA34" s="1569"/>
       <c r="BB34" s="1570" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC34" s="1571"/>
       <c r="BD34" s="1572" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE34" s="1573"/>
       <c r="BF34" s="1574" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG34" s="1575"/>
       <c r="BH34" s="1576" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI34" s="1577"/>
       <c r="BJ34" s="1578"/>
       <c r="BK34" s="1579"/>
       <c r="BL34" s="1580" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM34" s="1581"/>
       <c r="BN34" s="6374" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO34" s="1583"/>
       <c r="BP34" s="6375" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ34" s="1585"/>
       <c r="BR34" s="1586" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS34" s="1587"/>
       <c r="BT34" s="1588" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU34" s="1589"/>
       <c r="BV34" s="1590" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW34" s="1591"/>
       <c r="BX34" s="1592" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY34" s="1593"/>
       <c r="BZ34" s="6376" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA34" s="1595"/>
       <c r="CB34" s="6377" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC34" s="1597"/>
       <c r="CD34" s="6378" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE34" s="1599"/>
       <c r="CF34" s="1600" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG34" s="1601"/>
       <c r="CH34" s="1602" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI34" s="1603"/>
       <c r="CJ34" s="1604" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK34" s="1605"/>
       <c r="CL34" s="1606"/>
@@ -26306,7 +26309,7 @@
       <c r="CP34" s="1610"/>
       <c r="CQ34" s="1611"/>
       <c r="CR34" s="1612" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS34" s="1613"/>
       <c r="CT34" s="1614"/>
@@ -26351,11 +26354,11 @@
       </c>
       <c r="AG35" s="1648"/>
       <c r="AH35" s="6370" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI35" s="1650"/>
       <c r="AJ35" s="6371" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK35" s="1652"/>
       <c r="AL35" s="1653" t="n">
@@ -26379,11 +26382,11 @@
       </c>
       <c r="AU35" s="1662"/>
       <c r="AV35" s="6372" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW35" s="1664"/>
       <c r="AX35" s="6373" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY35" s="1666"/>
       <c r="AZ35" s="1667" t="n">
@@ -26411,11 +26414,11 @@
       </c>
       <c r="BM35" s="1680"/>
       <c r="BN35" s="6374" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO35" s="1682"/>
       <c r="BP35" s="6375" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ35" s="1684"/>
       <c r="BR35" s="1685" t="n">
@@ -26435,15 +26438,15 @@
       </c>
       <c r="BY35" s="1692"/>
       <c r="BZ35" s="6376" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA35" s="1694"/>
       <c r="CB35" s="6377" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC35" s="1696"/>
       <c r="CD35" s="6378" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE35" s="1698"/>
       <c r="CF35" s="1699" t="n">
@@ -26475,7 +26478,7 @@
       </c>
       <c r="B36" s="1716"/>
       <c r="C36" s="1717" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D36" s="1718"/>
       <c r="E36" s="1719"/>
@@ -26489,19 +26492,19 @@
       <c r="M36" s="1727"/>
       <c r="N36" s="1728"/>
       <c r="O36" s="1729" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P36" s="1730"/>
       <c r="Q36" s="1731"/>
       <c r="R36" s="1732"/>
       <c r="S36" s="1733" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T36" s="1734"/>
       <c r="U36" s="1735"/>
       <c r="V36" s="1736"/>
       <c r="W36" s="1737" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X36" s="1738"/>
       <c r="Y36" s="1739"/>
@@ -26510,121 +26513,121 @@
       <c r="AB36" s="1742"/>
       <c r="AC36" s="1743"/>
       <c r="AD36" s="1744" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE36" s="1745"/>
       <c r="AF36" s="1746" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG36" s="1747"/>
       <c r="AH36" s="6379" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI36" s="1749"/>
       <c r="AJ36" s="6380" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK36" s="1751"/>
       <c r="AL36" s="1752" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM36" s="1753"/>
       <c r="AN36" s="1754" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO36" s="1755"/>
       <c r="AP36" s="1756" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ36" s="1757"/>
       <c r="AR36" s="1758" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS36" s="1759"/>
       <c r="AT36" s="1760" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU36" s="1761"/>
       <c r="AV36" s="6381" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW36" s="1763"/>
       <c r="AX36" s="6382" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY36" s="1765"/>
       <c r="AZ36" s="1766" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA36" s="1767"/>
       <c r="BB36" s="1768" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC36" s="1769"/>
       <c r="BD36" s="1770" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE36" s="1771"/>
       <c r="BF36" s="1772" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG36" s="1773"/>
       <c r="BH36" s="1774" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI36" s="1775"/>
       <c r="BJ36" s="1776"/>
       <c r="BK36" s="1777"/>
       <c r="BL36" s="1778" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM36" s="1779"/>
       <c r="BN36" s="6383" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO36" s="1781"/>
       <c r="BP36" s="6384" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ36" s="1783"/>
       <c r="BR36" s="1784" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS36" s="1785"/>
       <c r="BT36" s="1786" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU36" s="1787"/>
       <c r="BV36" s="1788" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW36" s="1789"/>
       <c r="BX36" s="1790" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY36" s="1791"/>
       <c r="BZ36" s="6385" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA36" s="1793"/>
       <c r="CB36" s="6386" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC36" s="1795"/>
       <c r="CD36" s="6387" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE36" s="1797"/>
       <c r="CF36" s="1798" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG36" s="1799"/>
       <c r="CH36" s="1800" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI36" s="1801"/>
       <c r="CJ36" s="1802" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK36" s="1803"/>
       <c r="CL36" s="1804"/>
@@ -26634,7 +26637,7 @@
       <c r="CP36" s="1808"/>
       <c r="CQ36" s="1809"/>
       <c r="CR36" s="1810" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS36" s="1811"/>
       <c r="CT36" s="1812"/>
@@ -26679,11 +26682,11 @@
       </c>
       <c r="AG37" s="1846"/>
       <c r="AH37" s="6379" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI37" s="1848"/>
       <c r="AJ37" s="6380" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK37" s="1850"/>
       <c r="AL37" s="1851" t="n">
@@ -26707,11 +26710,11 @@
       </c>
       <c r="AU37" s="1860"/>
       <c r="AV37" s="6381" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW37" s="1862"/>
       <c r="AX37" s="6382" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY37" s="1864"/>
       <c r="AZ37" s="1865" t="n">
@@ -26739,11 +26742,11 @@
       </c>
       <c r="BM37" s="1878"/>
       <c r="BN37" s="6383" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO37" s="1880"/>
       <c r="BP37" s="6384" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ37" s="1882"/>
       <c r="BR37" s="1883" t="n">
@@ -26763,15 +26766,15 @@
       </c>
       <c r="BY37" s="1890"/>
       <c r="BZ37" s="6385" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA37" s="1892"/>
       <c r="CB37" s="6386" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC37" s="1894"/>
       <c r="CD37" s="6387" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE37" s="1896"/>
       <c r="CF37" s="1897" t="n">
@@ -26803,7 +26806,7 @@
       </c>
       <c r="B38" s="1914"/>
       <c r="C38" s="1915" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38" s="1916"/>
       <c r="E38" s="1917"/>
@@ -26817,19 +26820,19 @@
       <c r="M38" s="1925"/>
       <c r="N38" s="1926"/>
       <c r="O38" s="1927" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P38" s="1928"/>
       <c r="Q38" s="1929"/>
       <c r="R38" s="1930"/>
       <c r="S38" s="1931" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T38" s="1932"/>
       <c r="U38" s="1933"/>
       <c r="V38" s="1934"/>
       <c r="W38" s="1935" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X38" s="1936"/>
       <c r="Y38" s="1937"/>
@@ -26838,121 +26841,121 @@
       <c r="AB38" s="1940"/>
       <c r="AC38" s="1941"/>
       <c r="AD38" s="1942" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE38" s="1943"/>
       <c r="AF38" s="1944" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG38" s="1945"/>
       <c r="AH38" s="6388" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI38" s="1947"/>
       <c r="AJ38" s="6389" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK38" s="1949"/>
       <c r="AL38" s="1950" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM38" s="1951"/>
       <c r="AN38" s="1952" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO38" s="1953"/>
       <c r="AP38" s="1954" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ38" s="1955"/>
       <c r="AR38" s="1956" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS38" s="1957"/>
       <c r="AT38" s="1958" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU38" s="1959"/>
       <c r="AV38" s="6390" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW38" s="1961"/>
       <c r="AX38" s="6391" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY38" s="1963"/>
       <c r="AZ38" s="1964" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA38" s="1965"/>
       <c r="BB38" s="1966" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC38" s="1967"/>
       <c r="BD38" s="1968" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE38" s="1969"/>
       <c r="BF38" s="1970" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG38" s="1971"/>
       <c r="BH38" s="1972" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI38" s="1973"/>
       <c r="BJ38" s="1974"/>
       <c r="BK38" s="1975"/>
       <c r="BL38" s="1976" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM38" s="1977"/>
       <c r="BN38" s="6392" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO38" s="1979"/>
       <c r="BP38" s="6393" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ38" s="1981"/>
       <c r="BR38" s="1982" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS38" s="1983"/>
       <c r="BT38" s="1984" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU38" s="1985"/>
       <c r="BV38" s="1986" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW38" s="1987"/>
       <c r="BX38" s="1988" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY38" s="1989"/>
       <c r="BZ38" s="6394" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA38" s="1991"/>
       <c r="CB38" s="6395" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC38" s="1993"/>
       <c r="CD38" s="6396" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE38" s="1995"/>
       <c r="CF38" s="1996" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG38" s="1997"/>
       <c r="CH38" s="1998" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI38" s="1999"/>
       <c r="CJ38" s="2000" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK38" s="2001"/>
       <c r="CL38" s="2002"/>
@@ -26962,7 +26965,7 @@
       <c r="CP38" s="2006"/>
       <c r="CQ38" s="2007"/>
       <c r="CR38" s="2008" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS38" s="2009"/>
       <c r="CT38" s="2010"/>
@@ -27007,11 +27010,11 @@
       </c>
       <c r="AG39" s="2044"/>
       <c r="AH39" s="6388" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI39" s="2046"/>
       <c r="AJ39" s="6389" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK39" s="2048"/>
       <c r="AL39" s="2049" t="n">
@@ -27035,11 +27038,11 @@
       </c>
       <c r="AU39" s="2058"/>
       <c r="AV39" s="6390" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW39" s="2060"/>
       <c r="AX39" s="6391" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY39" s="2062"/>
       <c r="AZ39" s="2063" t="n">
@@ -27067,11 +27070,11 @@
       </c>
       <c r="BM39" s="2076"/>
       <c r="BN39" s="6392" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO39" s="2078"/>
       <c r="BP39" s="6393" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ39" s="2080"/>
       <c r="BR39" s="2081" t="n">
@@ -27091,15 +27094,15 @@
       </c>
       <c r="BY39" s="2088"/>
       <c r="BZ39" s="6394" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA39" s="2090"/>
       <c r="CB39" s="6395" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC39" s="2092"/>
       <c r="CD39" s="6396" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE39" s="2094"/>
       <c r="CF39" s="2095" t="n">
@@ -27131,7 +27134,7 @@
       </c>
       <c r="B40" s="2112"/>
       <c r="C40" s="2113" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D40" s="2114"/>
       <c r="E40" s="2115"/>
@@ -27145,19 +27148,19 @@
       <c r="M40" s="2123"/>
       <c r="N40" s="2124"/>
       <c r="O40" s="2125" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" s="2126"/>
       <c r="Q40" s="2127"/>
       <c r="R40" s="2128"/>
       <c r="S40" s="2129" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T40" s="2130"/>
       <c r="U40" s="2131"/>
       <c r="V40" s="2132"/>
       <c r="W40" s="2133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X40" s="2134"/>
       <c r="Y40" s="2135"/>
@@ -27166,121 +27169,121 @@
       <c r="AB40" s="2138"/>
       <c r="AC40" s="2139"/>
       <c r="AD40" s="2140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE40" s="2141"/>
       <c r="AF40" s="2142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG40" s="2143"/>
       <c r="AH40" s="6397" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI40" s="2145"/>
       <c r="AJ40" s="6398" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK40" s="2147"/>
       <c r="AL40" s="2148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM40" s="2149"/>
       <c r="AN40" s="2150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO40" s="2151"/>
       <c r="AP40" s="2152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ40" s="2153"/>
       <c r="AR40" s="2154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS40" s="2155"/>
       <c r="AT40" s="2156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU40" s="2157"/>
       <c r="AV40" s="6399" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW40" s="2159"/>
       <c r="AX40" s="6400" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY40" s="2161"/>
       <c r="AZ40" s="2162" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA40" s="2163"/>
       <c r="BB40" s="2164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC40" s="2165"/>
       <c r="BD40" s="2166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE40" s="2167"/>
       <c r="BF40" s="2168" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG40" s="2169"/>
       <c r="BH40" s="2170" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI40" s="2171"/>
       <c r="BJ40" s="2172"/>
       <c r="BK40" s="2173"/>
       <c r="BL40" s="2174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM40" s="2175"/>
       <c r="BN40" s="6401" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO40" s="2177"/>
       <c r="BP40" s="6402" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ40" s="2179"/>
       <c r="BR40" s="2180" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS40" s="2181"/>
       <c r="BT40" s="2182" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU40" s="2183"/>
       <c r="BV40" s="2184" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW40" s="2185"/>
       <c r="BX40" s="2186" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY40" s="2187"/>
       <c r="BZ40" s="6403" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA40" s="2189"/>
       <c r="CB40" s="6404" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC40" s="2191"/>
       <c r="CD40" s="6405" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE40" s="2193"/>
       <c r="CF40" s="2194" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG40" s="2195"/>
       <c r="CH40" s="2196" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI40" s="2197"/>
       <c r="CJ40" s="2198" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK40" s="2199"/>
       <c r="CL40" s="2200"/>
@@ -27290,7 +27293,7 @@
       <c r="CP40" s="2204"/>
       <c r="CQ40" s="2205"/>
       <c r="CR40" s="2206" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS40" s="2207"/>
       <c r="CT40" s="2208"/>
@@ -27335,11 +27338,11 @@
       </c>
       <c r="AG41" s="6587"/>
       <c r="AH41" s="6588" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI41" s="6587"/>
       <c r="AJ41" s="6588" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK41" s="6587"/>
       <c r="AL41" s="6587" t="n">
@@ -27363,11 +27366,11 @@
       </c>
       <c r="AU41" s="6587"/>
       <c r="AV41" s="6588" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW41" s="6587"/>
       <c r="AX41" s="6588" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY41" s="6587"/>
       <c r="AZ41" s="6587" t="n">
@@ -27395,11 +27398,11 @@
       </c>
       <c r="BM41" s="6587"/>
       <c r="BN41" s="6588" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO41" s="6587"/>
       <c r="BP41" s="6588" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ41" s="6587"/>
       <c r="BR41" s="6587" t="n">
@@ -27419,15 +27422,15 @@
       </c>
       <c r="BY41" s="6587"/>
       <c r="BZ41" s="6588" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA41" s="6587"/>
       <c r="CB41" s="6588" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC41" s="6587"/>
       <c r="CD41" s="6588" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE41" s="6587"/>
       <c r="CF41" s="6587" t="n">
@@ -27484,47 +27487,47 @@
       <c r="AB42" s="6591"/>
       <c r="AC42" s="6591"/>
       <c r="AD42" s="6591" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE42" s="6591"/>
       <c r="AF42" s="6591" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG42" s="6591"/>
       <c r="AH42" s="6591" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI42" s="6591"/>
       <c r="AJ42" s="6591" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK42" s="6591"/>
       <c r="AL42" s="6591" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AM42" s="6591"/>
       <c r="AN42" s="6591" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AO42" s="6591"/>
       <c r="AP42" s="6591" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AQ42" s="6591"/>
       <c r="AR42" s="6591" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AS42" s="6591"/>
       <c r="AT42" s="6591" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AU42" s="6591"/>
       <c r="AV42" s="6591" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AW42" s="6591"/>
       <c r="AX42" s="6591" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AY42" s="6591"/>
       <c r="AZ42" s="6591" t="s">
@@ -27532,15 +27535,15 @@
       </c>
       <c r="BA42" s="6591"/>
       <c r="BB42" s="6591" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BC42" s="6591"/>
       <c r="BD42" s="6591" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BE42" s="6591"/>
       <c r="BF42" s="6591" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BG42" s="6591"/>
       <c r="BH42" s="6591"/>
@@ -27548,11 +27551,11 @@
       <c r="BJ42" s="6591"/>
       <c r="BK42" s="6591"/>
       <c r="BL42" s="6591" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BM42" s="6591"/>
       <c r="BN42" s="6591" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BO42" s="6591"/>
       <c r="BP42" s="6591" t="s">
@@ -27560,7 +27563,7 @@
       </c>
       <c r="BQ42" s="6591"/>
       <c r="BR42" s="6591" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BS42" s="6591"/>
       <c r="BT42" s="6591" t="s">
@@ -27568,31 +27571,31 @@
       </c>
       <c r="BU42" s="6591"/>
       <c r="BV42" s="6591" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BW42" s="6591"/>
       <c r="BX42" s="6591" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BY42" s="6591"/>
       <c r="BZ42" s="6591" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="CA42" s="6591"/>
       <c r="CB42" s="6591" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="CC42" s="6591"/>
       <c r="CD42" s="6591" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="CE42" s="6591"/>
       <c r="CF42" s="6591" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="CG42" s="6591"/>
       <c r="CH42" s="6591" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="CI42" s="6591"/>
       <c r="CJ42" s="6591" t="s">
@@ -27616,7 +27619,7 @@
       </c>
       <c r="B43" s="2310"/>
       <c r="C43" s="2311" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D43" s="2312"/>
       <c r="E43" s="2313"/>
@@ -27630,19 +27633,19 @@
       <c r="M43" s="2321"/>
       <c r="N43" s="2322"/>
       <c r="O43" s="2323" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" s="2324"/>
       <c r="Q43" s="2325"/>
       <c r="R43" s="2326"/>
       <c r="S43" s="2327" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T43" s="2328"/>
       <c r="U43" s="2329"/>
       <c r="V43" s="2330"/>
       <c r="W43" s="2331" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X43" s="2332"/>
       <c r="Y43" s="2333"/>
@@ -27651,121 +27654,121 @@
       <c r="AB43" s="2336"/>
       <c r="AC43" s="2337"/>
       <c r="AD43" s="2338" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE43" s="2339"/>
       <c r="AF43" s="2340" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG43" s="2341"/>
       <c r="AH43" s="6406" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI43" s="2343"/>
       <c r="AJ43" s="6407" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK43" s="2345"/>
       <c r="AL43" s="2346" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM43" s="2347"/>
       <c r="AN43" s="2348" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO43" s="2349"/>
       <c r="AP43" s="2350" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ43" s="2351"/>
       <c r="AR43" s="2352" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS43" s="2353"/>
       <c r="AT43" s="2354" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU43" s="2355"/>
       <c r="AV43" s="6408" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW43" s="2357"/>
       <c r="AX43" s="6409" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY43" s="2359"/>
       <c r="AZ43" s="2360" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA43" s="2361"/>
       <c r="BB43" s="2362" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC43" s="2363"/>
       <c r="BD43" s="2364" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE43" s="2365"/>
       <c r="BF43" s="2366" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG43" s="2367"/>
       <c r="BH43" s="2368" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI43" s="2369"/>
       <c r="BJ43" s="2370"/>
       <c r="BK43" s="2371"/>
       <c r="BL43" s="2372" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM43" s="2373"/>
       <c r="BN43" s="6410" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO43" s="2375"/>
       <c r="BP43" s="6411" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ43" s="2377"/>
       <c r="BR43" s="2378" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS43" s="2379"/>
       <c r="BT43" s="2380" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU43" s="2381"/>
       <c r="BV43" s="2382" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW43" s="2383"/>
       <c r="BX43" s="2384" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY43" s="2385"/>
       <c r="BZ43" s="6412" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA43" s="2387"/>
       <c r="CB43" s="6413" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC43" s="2389"/>
       <c r="CD43" s="6414" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE43" s="2391"/>
       <c r="CF43" s="2392" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG43" s="2393"/>
       <c r="CH43" s="2394" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI43" s="2395"/>
       <c r="CJ43" s="2396" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK43" s="2397"/>
       <c r="CL43" s="2398"/>
@@ -27775,7 +27778,7 @@
       <c r="CP43" s="2402"/>
       <c r="CQ43" s="2403"/>
       <c r="CR43" s="2404" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS43" s="2405"/>
       <c r="CT43" s="2406"/>
@@ -27820,11 +27823,11 @@
       </c>
       <c r="AG44" s="2440"/>
       <c r="AH44" s="6406" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI44" s="2442"/>
       <c r="AJ44" s="6407" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK44" s="2444"/>
       <c r="AL44" s="2445" t="n">
@@ -27848,11 +27851,11 @@
       </c>
       <c r="AU44" s="2454"/>
       <c r="AV44" s="6408" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW44" s="2456"/>
       <c r="AX44" s="6409" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY44" s="2458"/>
       <c r="AZ44" s="2459" t="n">
@@ -27880,11 +27883,11 @@
       </c>
       <c r="BM44" s="2472"/>
       <c r="BN44" s="6410" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO44" s="2474"/>
       <c r="BP44" s="6411" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ44" s="2476"/>
       <c r="BR44" s="2477" t="n">
@@ -27904,15 +27907,15 @@
       </c>
       <c r="BY44" s="2484"/>
       <c r="BZ44" s="6412" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA44" s="2486"/>
       <c r="CB44" s="6413" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC44" s="2488"/>
       <c r="CD44" s="6414" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE44" s="2490"/>
       <c r="CF44" s="2491" t="n">
@@ -27944,7 +27947,7 @@
       </c>
       <c r="B45" s="2508"/>
       <c r="C45" s="2509" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D45" s="2510"/>
       <c r="E45" s="2511"/>
@@ -27958,19 +27961,19 @@
       <c r="M45" s="2519"/>
       <c r="N45" s="2520"/>
       <c r="O45" s="2521" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" s="2522"/>
       <c r="Q45" s="2523"/>
       <c r="R45" s="2524"/>
       <c r="S45" s="2525" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T45" s="2526"/>
       <c r="U45" s="2527"/>
       <c r="V45" s="2528"/>
       <c r="W45" s="2529" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X45" s="2530"/>
       <c r="Y45" s="2531"/>
@@ -27979,121 +27982,121 @@
       <c r="AB45" s="2534"/>
       <c r="AC45" s="2535"/>
       <c r="AD45" s="2536" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE45" s="2537"/>
       <c r="AF45" s="2538" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG45" s="2539"/>
       <c r="AH45" s="6416" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI45" s="2541"/>
       <c r="AJ45" s="6417" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK45" s="2543"/>
       <c r="AL45" s="2544" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM45" s="2545"/>
       <c r="AN45" s="2546" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO45" s="2547"/>
       <c r="AP45" s="2548" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ45" s="2549"/>
       <c r="AR45" s="2550" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS45" s="2551"/>
       <c r="AT45" s="2552" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU45" s="2553"/>
       <c r="AV45" s="6418" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW45" s="2555"/>
       <c r="AX45" s="6419" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY45" s="2557"/>
       <c r="AZ45" s="2558" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA45" s="2559"/>
       <c r="BB45" s="2560" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC45" s="2561"/>
       <c r="BD45" s="2562" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE45" s="2563"/>
       <c r="BF45" s="2564" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG45" s="2565"/>
       <c r="BH45" s="2566" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI45" s="2567"/>
       <c r="BJ45" s="2568"/>
       <c r="BK45" s="2569"/>
       <c r="BL45" s="2570" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM45" s="2571"/>
       <c r="BN45" s="6420" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO45" s="2573"/>
       <c r="BP45" s="6421" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ45" s="2575"/>
       <c r="BR45" s="2576" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS45" s="2577"/>
       <c r="BT45" s="2578" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU45" s="2579"/>
       <c r="BV45" s="2580" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW45" s="2581"/>
       <c r="BX45" s="2582" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY45" s="2583"/>
       <c r="BZ45" s="6422" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA45" s="2585"/>
       <c r="CB45" s="6423" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC45" s="2587"/>
       <c r="CD45" s="6424" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE45" s="2589"/>
       <c r="CF45" s="2590" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG45" s="2591"/>
       <c r="CH45" s="2592" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI45" s="2593"/>
       <c r="CJ45" s="2594" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK45" s="2595"/>
       <c r="CL45" s="2596"/>
@@ -28103,7 +28106,7 @@
       <c r="CP45" s="2600"/>
       <c r="CQ45" s="2601"/>
       <c r="CR45" s="2602" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS45" s="2603"/>
       <c r="CT45" s="2604"/>
@@ -28148,11 +28151,11 @@
       </c>
       <c r="AG46" s="2638"/>
       <c r="AH46" s="6416" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI46" s="2640"/>
       <c r="AJ46" s="6417" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK46" s="2642"/>
       <c r="AL46" s="2643" t="n">
@@ -28176,11 +28179,11 @@
       </c>
       <c r="AU46" s="2652"/>
       <c r="AV46" s="6418" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW46" s="2654"/>
       <c r="AX46" s="6419" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY46" s="2656"/>
       <c r="AZ46" s="2657" t="n">
@@ -28208,11 +28211,11 @@
       </c>
       <c r="BM46" s="2670"/>
       <c r="BN46" s="6420" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO46" s="2672"/>
       <c r="BP46" s="6421" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ46" s="2674"/>
       <c r="BR46" s="2675" t="n">
@@ -28232,15 +28235,15 @@
       </c>
       <c r="BY46" s="2682"/>
       <c r="BZ46" s="6422" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA46" s="2684"/>
       <c r="CB46" s="6423" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC46" s="2686"/>
       <c r="CD46" s="6424" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE46" s="2688"/>
       <c r="CF46" s="2689" t="n">
@@ -28272,7 +28275,7 @@
       </c>
       <c r="B47" s="2706"/>
       <c r="C47" s="2707" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D47" s="2708"/>
       <c r="E47" s="2709"/>
@@ -28286,19 +28289,19 @@
       <c r="M47" s="2717"/>
       <c r="N47" s="2718"/>
       <c r="O47" s="2719" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P47" s="2720"/>
       <c r="Q47" s="2721"/>
       <c r="R47" s="2722"/>
       <c r="S47" s="2723" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T47" s="2724"/>
       <c r="U47" s="2725"/>
       <c r="V47" s="2726"/>
       <c r="W47" s="2727" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X47" s="2728"/>
       <c r="Y47" s="2729"/>
@@ -28307,121 +28310,121 @@
       <c r="AB47" s="2732"/>
       <c r="AC47" s="2733"/>
       <c r="AD47" s="2734" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE47" s="2735"/>
       <c r="AF47" s="2736" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG47" s="2737"/>
       <c r="AH47" s="6425" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI47" s="2739"/>
       <c r="AJ47" s="6426" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK47" s="2741"/>
       <c r="AL47" s="2742" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM47" s="2743"/>
       <c r="AN47" s="2744" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO47" s="2745"/>
       <c r="AP47" s="2746" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ47" s="2747"/>
       <c r="AR47" s="2748" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS47" s="2749"/>
       <c r="AT47" s="2750" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU47" s="2751"/>
       <c r="AV47" s="6427" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW47" s="2753"/>
       <c r="AX47" s="6428" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY47" s="2755"/>
       <c r="AZ47" s="2756" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA47" s="2757"/>
       <c r="BB47" s="2758" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC47" s="2759"/>
       <c r="BD47" s="2760" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE47" s="2761"/>
       <c r="BF47" s="2762" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG47" s="2763"/>
       <c r="BH47" s="2764" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI47" s="2765"/>
       <c r="BJ47" s="2766"/>
       <c r="BK47" s="2767"/>
       <c r="BL47" s="2768" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM47" s="2769"/>
       <c r="BN47" s="6429" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO47" s="2771"/>
       <c r="BP47" s="6430" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ47" s="2773"/>
       <c r="BR47" s="2774" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS47" s="2775"/>
       <c r="BT47" s="2776" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU47" s="2777"/>
       <c r="BV47" s="2778" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW47" s="2779"/>
       <c r="BX47" s="2780" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY47" s="2781"/>
       <c r="BZ47" s="6431" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA47" s="2783"/>
       <c r="CB47" s="6432" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC47" s="2785"/>
       <c r="CD47" s="6433" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE47" s="2787"/>
       <c r="CF47" s="2788" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG47" s="2789"/>
       <c r="CH47" s="2790" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI47" s="2791"/>
       <c r="CJ47" s="2792" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK47" s="2793"/>
       <c r="CL47" s="2794"/>
@@ -28431,7 +28434,7 @@
       <c r="CP47" s="2798"/>
       <c r="CQ47" s="2799"/>
       <c r="CR47" s="2800" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS47" s="2801"/>
       <c r="CT47" s="2802"/>
@@ -28476,11 +28479,11 @@
       </c>
       <c r="AG48" s="2836"/>
       <c r="AH48" s="6425" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI48" s="2838"/>
       <c r="AJ48" s="6426" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK48" s="2840"/>
       <c r="AL48" s="2841" t="n">
@@ -28504,11 +28507,11 @@
       </c>
       <c r="AU48" s="2850"/>
       <c r="AV48" s="6427" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW48" s="2852"/>
       <c r="AX48" s="6428" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY48" s="2854"/>
       <c r="AZ48" s="2855" t="n">
@@ -28536,11 +28539,11 @@
       </c>
       <c r="BM48" s="2868"/>
       <c r="BN48" s="6429" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO48" s="2870"/>
       <c r="BP48" s="6430" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ48" s="2872"/>
       <c r="BR48" s="2873" t="n">
@@ -28560,15 +28563,15 @@
       </c>
       <c r="BY48" s="2880"/>
       <c r="BZ48" s="6431" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA48" s="2882"/>
       <c r="CB48" s="6432" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC48" s="2884"/>
       <c r="CD48" s="6433" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE48" s="2886"/>
       <c r="CF48" s="2887" t="n">
@@ -28600,7 +28603,7 @@
       </c>
       <c r="B49" s="2904"/>
       <c r="C49" s="2905" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D49" s="2906"/>
       <c r="E49" s="2907"/>
@@ -28614,19 +28617,19 @@
       <c r="M49" s="2915"/>
       <c r="N49" s="2916"/>
       <c r="O49" s="2917" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" s="2918"/>
       <c r="Q49" s="2919"/>
       <c r="R49" s="2920"/>
       <c r="S49" s="2921" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T49" s="2922"/>
       <c r="U49" s="2923"/>
       <c r="V49" s="2924"/>
       <c r="W49" s="2925" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X49" s="2926"/>
       <c r="Y49" s="2927"/>
@@ -28635,121 +28638,121 @@
       <c r="AB49" s="2930"/>
       <c r="AC49" s="2931"/>
       <c r="AD49" s="2932" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE49" s="2933"/>
       <c r="AF49" s="2934" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG49" s="2935"/>
       <c r="AH49" s="6434" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI49" s="2937"/>
       <c r="AJ49" s="6435" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK49" s="2939"/>
       <c r="AL49" s="2940" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM49" s="2941"/>
       <c r="AN49" s="2942" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO49" s="2943"/>
       <c r="AP49" s="2944" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ49" s="2945"/>
       <c r="AR49" s="2946" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS49" s="2947"/>
       <c r="AT49" s="2948" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU49" s="2949"/>
       <c r="AV49" s="6436" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW49" s="2951"/>
       <c r="AX49" s="6437" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY49" s="2953"/>
       <c r="AZ49" s="2954" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA49" s="2955"/>
       <c r="BB49" s="2956" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC49" s="2957"/>
       <c r="BD49" s="2958" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE49" s="2959"/>
       <c r="BF49" s="2960" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG49" s="2961"/>
       <c r="BH49" s="2962" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI49" s="2963"/>
       <c r="BJ49" s="2964"/>
       <c r="BK49" s="2965"/>
       <c r="BL49" s="2966" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM49" s="2967"/>
       <c r="BN49" s="6438" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO49" s="2969"/>
       <c r="BP49" s="6439" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ49" s="2971"/>
       <c r="BR49" s="2972" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS49" s="2973"/>
       <c r="BT49" s="2974" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU49" s="2975"/>
       <c r="BV49" s="2976" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW49" s="2977"/>
       <c r="BX49" s="2978" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY49" s="2979"/>
       <c r="BZ49" s="6440" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA49" s="2981"/>
       <c r="CB49" s="6441" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC49" s="2983"/>
       <c r="CD49" s="6442" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE49" s="2985"/>
       <c r="CF49" s="2986" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG49" s="2987"/>
       <c r="CH49" s="2988" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI49" s="2989"/>
       <c r="CJ49" s="2990" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK49" s="2991"/>
       <c r="CL49" s="2992"/>
@@ -28759,7 +28762,7 @@
       <c r="CP49" s="2996"/>
       <c r="CQ49" s="2997"/>
       <c r="CR49" s="2998" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS49" s="2999"/>
       <c r="CT49" s="3000"/>
@@ -28804,11 +28807,11 @@
       </c>
       <c r="AG50" s="3034"/>
       <c r="AH50" s="6434" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI50" s="3036"/>
       <c r="AJ50" s="6435" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK50" s="3038"/>
       <c r="AL50" s="3039" t="n">
@@ -28832,11 +28835,11 @@
       </c>
       <c r="AU50" s="3048"/>
       <c r="AV50" s="6436" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW50" s="3050"/>
       <c r="AX50" s="6437" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY50" s="3052"/>
       <c r="AZ50" s="3053" t="n">
@@ -28864,11 +28867,11 @@
       </c>
       <c r="BM50" s="3066"/>
       <c r="BN50" s="6438" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO50" s="3068"/>
       <c r="BP50" s="6439" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ50" s="3070"/>
       <c r="BR50" s="3071" t="n">
@@ -28888,15 +28891,15 @@
       </c>
       <c r="BY50" s="3078"/>
       <c r="BZ50" s="6440" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA50" s="3080"/>
       <c r="CB50" s="6441" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC50" s="3082"/>
       <c r="CD50" s="6442" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE50" s="3084"/>
       <c r="CF50" s="3085" t="n">
@@ -28928,7 +28931,7 @@
       </c>
       <c r="B51" s="3102"/>
       <c r="C51" s="3103" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D51" s="3104"/>
       <c r="E51" s="3105"/>
@@ -28942,19 +28945,19 @@
       <c r="M51" s="3113"/>
       <c r="N51" s="3114"/>
       <c r="O51" s="3115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" s="3116"/>
       <c r="Q51" s="3117"/>
       <c r="R51" s="3118"/>
       <c r="S51" s="3119" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T51" s="3120"/>
       <c r="U51" s="3121"/>
       <c r="V51" s="3122"/>
       <c r="W51" s="3123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X51" s="3124"/>
       <c r="Y51" s="3125"/>
@@ -28963,121 +28966,121 @@
       <c r="AB51" s="3128"/>
       <c r="AC51" s="3129"/>
       <c r="AD51" s="3130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE51" s="3131"/>
       <c r="AF51" s="3132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG51" s="3133"/>
       <c r="AH51" s="6443" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI51" s="3135"/>
       <c r="AJ51" s="6444" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK51" s="3137"/>
       <c r="AL51" s="3138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM51" s="3139"/>
       <c r="AN51" s="3140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO51" s="3141"/>
       <c r="AP51" s="3142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ51" s="3143"/>
       <c r="AR51" s="3144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS51" s="3145"/>
       <c r="AT51" s="3146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU51" s="3147"/>
       <c r="AV51" s="6445" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW51" s="3149"/>
       <c r="AX51" s="6446" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY51" s="3151"/>
       <c r="AZ51" s="3152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA51" s="3153"/>
       <c r="BB51" s="3154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC51" s="3155"/>
       <c r="BD51" s="3156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE51" s="3157"/>
       <c r="BF51" s="3158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG51" s="3159"/>
       <c r="BH51" s="3160" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI51" s="3161"/>
       <c r="BJ51" s="3162"/>
       <c r="BK51" s="3163"/>
       <c r="BL51" s="3164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM51" s="3165"/>
       <c r="BN51" s="6447" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO51" s="3167"/>
       <c r="BP51" s="6448" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ51" s="3169"/>
       <c r="BR51" s="3170" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS51" s="3171"/>
       <c r="BT51" s="3172" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU51" s="3173"/>
       <c r="BV51" s="3174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW51" s="3175"/>
       <c r="BX51" s="3176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY51" s="3177"/>
       <c r="BZ51" s="6449" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA51" s="3179"/>
       <c r="CB51" s="6450" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC51" s="3181"/>
       <c r="CD51" s="6451" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE51" s="3183"/>
       <c r="CF51" s="3184" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG51" s="3185"/>
       <c r="CH51" s="3186" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI51" s="3187"/>
       <c r="CJ51" s="3188" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK51" s="3189"/>
       <c r="CL51" s="3190"/>
@@ -29087,7 +29090,7 @@
       <c r="CP51" s="3194"/>
       <c r="CQ51" s="3195"/>
       <c r="CR51" s="3196" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS51" s="3197"/>
       <c r="CT51" s="3198"/>
@@ -29132,11 +29135,11 @@
       </c>
       <c r="AG52" s="3232"/>
       <c r="AH52" s="6443" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI52" s="3234"/>
       <c r="AJ52" s="6444" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK52" s="3236"/>
       <c r="AL52" s="3237" t="n">
@@ -29160,11 +29163,11 @@
       </c>
       <c r="AU52" s="3246"/>
       <c r="AV52" s="6445" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW52" s="3248"/>
       <c r="AX52" s="6446" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY52" s="3250"/>
       <c r="AZ52" s="3251" t="n">
@@ -29192,11 +29195,11 @@
       </c>
       <c r="BM52" s="3264"/>
       <c r="BN52" s="6447" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO52" s="3266"/>
       <c r="BP52" s="6448" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ52" s="3268"/>
       <c r="BR52" s="3269" t="n">
@@ -29216,15 +29219,15 @@
       </c>
       <c r="BY52" s="3276"/>
       <c r="BZ52" s="6449" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA52" s="3278"/>
       <c r="CB52" s="6450" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC52" s="3280"/>
       <c r="CD52" s="6451" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE52" s="3282"/>
       <c r="CF52" s="3283" t="n">
@@ -29256,7 +29259,7 @@
       </c>
       <c r="B53" s="3300"/>
       <c r="C53" s="3301" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D53" s="3302"/>
       <c r="E53" s="3303"/>
@@ -29270,19 +29273,19 @@
       <c r="M53" s="3311"/>
       <c r="N53" s="3312"/>
       <c r="O53" s="3313" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P53" s="3314"/>
       <c r="Q53" s="3315"/>
       <c r="R53" s="3316"/>
       <c r="S53" s="3317" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T53" s="3318"/>
       <c r="U53" s="3319"/>
       <c r="V53" s="3320"/>
       <c r="W53" s="3321" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="X53" s="3322"/>
       <c r="Y53" s="3323"/>
@@ -29291,121 +29294,121 @@
       <c r="AB53" s="3326"/>
       <c r="AC53" s="3327"/>
       <c r="AD53" s="3328" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE53" s="3329"/>
       <c r="AF53" s="3330" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG53" s="3331"/>
       <c r="AH53" s="6452" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI53" s="3333"/>
       <c r="AJ53" s="6453" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK53" s="3335"/>
       <c r="AL53" s="3336" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM53" s="3337"/>
       <c r="AN53" s="3338" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO53" s="3339"/>
       <c r="AP53" s="3340" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ53" s="3341"/>
       <c r="AR53" s="3342" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS53" s="3343"/>
       <c r="AT53" s="3344" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU53" s="3345"/>
       <c r="AV53" s="6454" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW53" s="3347"/>
       <c r="AX53" s="6455" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY53" s="3349"/>
       <c r="AZ53" s="3350" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA53" s="3351"/>
       <c r="BB53" s="3352" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC53" s="3353"/>
       <c r="BD53" s="3354" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE53" s="3355"/>
       <c r="BF53" s="3356" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG53" s="3357"/>
       <c r="BH53" s="3358" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI53" s="3359"/>
       <c r="BJ53" s="3360"/>
       <c r="BK53" s="3361"/>
       <c r="BL53" s="3362" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM53" s="3363"/>
       <c r="BN53" s="6456" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO53" s="3365"/>
       <c r="BP53" s="6457" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ53" s="3367"/>
       <c r="BR53" s="3368" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS53" s="3369"/>
       <c r="BT53" s="3370" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU53" s="3371"/>
       <c r="BV53" s="3372" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW53" s="3373"/>
       <c r="BX53" s="3374" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY53" s="3375"/>
       <c r="BZ53" s="6458" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA53" s="3377"/>
       <c r="CB53" s="6459" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC53" s="3379"/>
       <c r="CD53" s="6460" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE53" s="3381"/>
       <c r="CF53" s="3382" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG53" s="3383"/>
       <c r="CH53" s="3384" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI53" s="3385"/>
       <c r="CJ53" s="3386" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK53" s="3387"/>
       <c r="CL53" s="3388"/>
@@ -29415,7 +29418,7 @@
       <c r="CP53" s="3392"/>
       <c r="CQ53" s="3393"/>
       <c r="CR53" s="3394" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS53" s="3395"/>
       <c r="CT53" s="3396"/>
@@ -29460,11 +29463,11 @@
       </c>
       <c r="AG54" s="3430"/>
       <c r="AH54" s="6452" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI54" s="3432"/>
       <c r="AJ54" s="6453" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK54" s="3434"/>
       <c r="AL54" s="3435" t="n">
@@ -29488,11 +29491,11 @@
       </c>
       <c r="AU54" s="3444"/>
       <c r="AV54" s="6454" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW54" s="3446"/>
       <c r="AX54" s="6455" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY54" s="3448"/>
       <c r="AZ54" s="3449" t="n">
@@ -29520,11 +29523,11 @@
       </c>
       <c r="BM54" s="3462"/>
       <c r="BN54" s="6456" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO54" s="3464"/>
       <c r="BP54" s="6457" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ54" s="3466"/>
       <c r="BR54" s="3467" t="n">
@@ -29544,15 +29547,15 @@
       </c>
       <c r="BY54" s="3474"/>
       <c r="BZ54" s="6458" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA54" s="3476"/>
       <c r="CB54" s="6459" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC54" s="3478"/>
       <c r="CD54" s="6460" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE54" s="3480"/>
       <c r="CF54" s="3481" t="n">
@@ -29584,7 +29587,7 @@
       </c>
       <c r="B55" s="3498"/>
       <c r="C55" s="3499" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D55" s="3500"/>
       <c r="E55" s="3501"/>
@@ -29598,19 +29601,19 @@
       <c r="M55" s="3509"/>
       <c r="N55" s="3510"/>
       <c r="O55" s="3511" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P55" s="3512"/>
       <c r="Q55" s="3513"/>
       <c r="R55" s="3514"/>
       <c r="S55" s="3515" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T55" s="3516"/>
       <c r="U55" s="3517"/>
       <c r="V55" s="3518"/>
       <c r="W55" s="3519" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X55" s="3520"/>
       <c r="Y55" s="3521"/>
@@ -29619,121 +29622,121 @@
       <c r="AB55" s="3524"/>
       <c r="AC55" s="3525"/>
       <c r="AD55" s="3526" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE55" s="3527"/>
       <c r="AF55" s="3528" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG55" s="3529"/>
       <c r="AH55" s="6461" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI55" s="3531"/>
       <c r="AJ55" s="6462" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK55" s="3533"/>
       <c r="AL55" s="3534" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM55" s="3535"/>
       <c r="AN55" s="3536" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO55" s="3537"/>
       <c r="AP55" s="3538" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ55" s="3539"/>
       <c r="AR55" s="3540" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS55" s="3541"/>
       <c r="AT55" s="3542" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU55" s="3543"/>
       <c r="AV55" s="6463" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW55" s="3545"/>
       <c r="AX55" s="6464" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY55" s="3547"/>
       <c r="AZ55" s="3548" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA55" s="3549"/>
       <c r="BB55" s="3550" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC55" s="3551"/>
       <c r="BD55" s="3552" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE55" s="3553"/>
       <c r="BF55" s="3554" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG55" s="3555"/>
       <c r="BH55" s="3556" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI55" s="3557"/>
       <c r="BJ55" s="3558"/>
       <c r="BK55" s="3559"/>
       <c r="BL55" s="3560" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM55" s="3561"/>
       <c r="BN55" s="6465" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO55" s="3563"/>
       <c r="BP55" s="6466" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ55" s="3565"/>
       <c r="BR55" s="3566" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS55" s="3567"/>
       <c r="BT55" s="3568" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU55" s="3569"/>
       <c r="BV55" s="3570" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW55" s="3571"/>
       <c r="BX55" s="3572" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY55" s="3573"/>
       <c r="BZ55" s="6467" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA55" s="3575"/>
       <c r="CB55" s="6468" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC55" s="3577"/>
       <c r="CD55" s="6469" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE55" s="3579"/>
       <c r="CF55" s="3580" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG55" s="3581"/>
       <c r="CH55" s="3582" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI55" s="3583"/>
       <c r="CJ55" s="3584" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK55" s="3585"/>
       <c r="CL55" s="3586"/>
@@ -29743,7 +29746,7 @@
       <c r="CP55" s="3590"/>
       <c r="CQ55" s="3591"/>
       <c r="CR55" s="3592" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS55" s="3593"/>
       <c r="CT55" s="3594"/>
@@ -29788,11 +29791,11 @@
       </c>
       <c r="AG56" s="3628"/>
       <c r="AH56" s="6461" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI56" s="3630"/>
       <c r="AJ56" s="6462" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK56" s="3632"/>
       <c r="AL56" s="3633" t="n">
@@ -29816,11 +29819,11 @@
       </c>
       <c r="AU56" s="3642"/>
       <c r="AV56" s="6463" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW56" s="3644"/>
       <c r="AX56" s="6464" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY56" s="3646"/>
       <c r="AZ56" s="3647" t="n">
@@ -29848,11 +29851,11 @@
       </c>
       <c r="BM56" s="3660"/>
       <c r="BN56" s="6465" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO56" s="3662"/>
       <c r="BP56" s="6466" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ56" s="3664"/>
       <c r="BR56" s="3665" t="n">
@@ -29872,15 +29875,15 @@
       </c>
       <c r="BY56" s="3672"/>
       <c r="BZ56" s="6467" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA56" s="3674"/>
       <c r="CB56" s="6468" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC56" s="3676"/>
       <c r="CD56" s="6469" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE56" s="3678"/>
       <c r="CF56" s="3679" t="n">
@@ -29912,7 +29915,7 @@
       </c>
       <c r="B57" s="3696"/>
       <c r="C57" s="3697" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D57" s="3698"/>
       <c r="E57" s="3699"/>
@@ -29926,19 +29929,19 @@
       <c r="M57" s="3707"/>
       <c r="N57" s="3708"/>
       <c r="O57" s="3709" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P57" s="3710"/>
       <c r="Q57" s="3711"/>
       <c r="R57" s="3712"/>
       <c r="S57" s="3713" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T57" s="3714"/>
       <c r="U57" s="3715"/>
       <c r="V57" s="3716"/>
       <c r="W57" s="3717" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X57" s="3718"/>
       <c r="Y57" s="3719"/>
@@ -29947,121 +29950,121 @@
       <c r="AB57" s="3722"/>
       <c r="AC57" s="3723"/>
       <c r="AD57" s="3724" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE57" s="3725"/>
       <c r="AF57" s="3726" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG57" s="3727"/>
       <c r="AH57" s="6470" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI57" s="3729"/>
       <c r="AJ57" s="6471" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK57" s="3731"/>
       <c r="AL57" s="3732" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM57" s="3733"/>
       <c r="AN57" s="3734" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO57" s="3735"/>
       <c r="AP57" s="3736" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ57" s="3737"/>
       <c r="AR57" s="3738" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS57" s="3739"/>
       <c r="AT57" s="3740" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU57" s="3741"/>
       <c r="AV57" s="6472" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW57" s="3743"/>
       <c r="AX57" s="6473" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY57" s="3745"/>
       <c r="AZ57" s="3746" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA57" s="3747"/>
       <c r="BB57" s="3748" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC57" s="3749"/>
       <c r="BD57" s="3750" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE57" s="3751"/>
       <c r="BF57" s="3752" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG57" s="3753"/>
       <c r="BH57" s="3754" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI57" s="3755"/>
       <c r="BJ57" s="3756"/>
       <c r="BK57" s="3757"/>
       <c r="BL57" s="3758" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM57" s="3759"/>
       <c r="BN57" s="6474" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO57" s="3761"/>
       <c r="BP57" s="6475" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ57" s="3763"/>
       <c r="BR57" s="3764" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS57" s="3765"/>
       <c r="BT57" s="3766" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU57" s="3767"/>
       <c r="BV57" s="3768" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW57" s="3769"/>
       <c r="BX57" s="3770" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY57" s="3771"/>
       <c r="BZ57" s="6476" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA57" s="3773"/>
       <c r="CB57" s="6477" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC57" s="3775"/>
       <c r="CD57" s="6478" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE57" s="3777"/>
       <c r="CF57" s="3778" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG57" s="3779"/>
       <c r="CH57" s="3780" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI57" s="3781"/>
       <c r="CJ57" s="3782" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK57" s="3783"/>
       <c r="CL57" s="3784"/>
@@ -30071,7 +30074,7 @@
       <c r="CP57" s="3788"/>
       <c r="CQ57" s="3789"/>
       <c r="CR57" s="3790" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS57" s="3791"/>
       <c r="CT57" s="3792"/>
@@ -30116,11 +30119,11 @@
       </c>
       <c r="AG58" s="3826"/>
       <c r="AH58" s="6470" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI58" s="3828"/>
       <c r="AJ58" s="6471" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK58" s="3830"/>
       <c r="AL58" s="3831" t="n">
@@ -30144,11 +30147,11 @@
       </c>
       <c r="AU58" s="3840"/>
       <c r="AV58" s="6472" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW58" s="3842"/>
       <c r="AX58" s="6473" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY58" s="3844"/>
       <c r="AZ58" s="3845" t="n">
@@ -30176,11 +30179,11 @@
       </c>
       <c r="BM58" s="3858"/>
       <c r="BN58" s="6474" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO58" s="3860"/>
       <c r="BP58" s="6475" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ58" s="3862"/>
       <c r="BR58" s="3863" t="n">
@@ -30200,15 +30203,15 @@
       </c>
       <c r="BY58" s="3870"/>
       <c r="BZ58" s="6476" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA58" s="3872"/>
       <c r="CB58" s="6477" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC58" s="3874"/>
       <c r="CD58" s="6478" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE58" s="3876"/>
       <c r="CF58" s="3877" t="n">
@@ -30240,7 +30243,7 @@
       </c>
       <c r="B59" s="3894"/>
       <c r="C59" s="3895" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D59" s="3896"/>
       <c r="E59" s="3897"/>
@@ -30254,19 +30257,19 @@
       <c r="M59" s="3905"/>
       <c r="N59" s="3906"/>
       <c r="O59" s="3907" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P59" s="3908"/>
       <c r="Q59" s="3909"/>
       <c r="R59" s="3910"/>
       <c r="S59" s="3911" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T59" s="3912"/>
       <c r="U59" s="3913"/>
       <c r="V59" s="3914"/>
       <c r="W59" s="3915" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X59" s="3916"/>
       <c r="Y59" s="3917"/>
@@ -30275,121 +30278,121 @@
       <c r="AB59" s="3920"/>
       <c r="AC59" s="3921"/>
       <c r="AD59" s="3922" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE59" s="3923"/>
       <c r="AF59" s="3924" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG59" s="3925"/>
       <c r="AH59" s="6479" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI59" s="3927"/>
       <c r="AJ59" s="6480" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK59" s="3929"/>
       <c r="AL59" s="3930" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM59" s="3931"/>
       <c r="AN59" s="3932" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO59" s="3933"/>
       <c r="AP59" s="3934" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ59" s="3935"/>
       <c r="AR59" s="3936" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS59" s="3937"/>
       <c r="AT59" s="3938" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU59" s="3939"/>
       <c r="AV59" s="6481" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW59" s="3941"/>
       <c r="AX59" s="6482" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY59" s="3943"/>
       <c r="AZ59" s="3944" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA59" s="3945"/>
       <c r="BB59" s="3946" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC59" s="3947"/>
       <c r="BD59" s="3948" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE59" s="3949"/>
       <c r="BF59" s="3950" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG59" s="3951"/>
       <c r="BH59" s="3952" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI59" s="3953"/>
       <c r="BJ59" s="3954"/>
       <c r="BK59" s="3955"/>
       <c r="BL59" s="3956" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM59" s="3957"/>
       <c r="BN59" s="6483" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO59" s="3959"/>
       <c r="BP59" s="6484" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ59" s="3961"/>
       <c r="BR59" s="3962" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS59" s="3963"/>
       <c r="BT59" s="3964" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU59" s="3965"/>
       <c r="BV59" s="3966" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW59" s="3967"/>
       <c r="BX59" s="3968" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY59" s="3969"/>
       <c r="BZ59" s="6485" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA59" s="3971"/>
       <c r="CB59" s="6486" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC59" s="3973"/>
       <c r="CD59" s="6487" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE59" s="3975"/>
       <c r="CF59" s="3976" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG59" s="3977"/>
       <c r="CH59" s="3978" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI59" s="3979"/>
       <c r="CJ59" s="3980" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK59" s="3981"/>
       <c r="CL59" s="3982"/>
@@ -30399,7 +30402,7 @@
       <c r="CP59" s="3986"/>
       <c r="CQ59" s="3987"/>
       <c r="CR59" s="3988" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS59" s="3989"/>
       <c r="CT59" s="3990"/>
@@ -30444,11 +30447,11 @@
       </c>
       <c r="AG60" s="4024"/>
       <c r="AH60" s="6479" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI60" s="4026"/>
       <c r="AJ60" s="6480" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK60" s="4028"/>
       <c r="AL60" s="4029" t="n">
@@ -30472,11 +30475,11 @@
       </c>
       <c r="AU60" s="4038"/>
       <c r="AV60" s="6481" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW60" s="4040"/>
       <c r="AX60" s="6482" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY60" s="4042"/>
       <c r="AZ60" s="4043" t="n">
@@ -30504,11 +30507,11 @@
       </c>
       <c r="BM60" s="4056"/>
       <c r="BN60" s="6483" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO60" s="4058"/>
       <c r="BP60" s="6484" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ60" s="4060"/>
       <c r="BR60" s="4061" t="n">
@@ -30528,15 +30531,15 @@
       </c>
       <c r="BY60" s="4068"/>
       <c r="BZ60" s="6485" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA60" s="4070"/>
       <c r="CB60" s="6486" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC60" s="4072"/>
       <c r="CD60" s="6487" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE60" s="4074"/>
       <c r="CF60" s="4075" t="n">
@@ -30568,7 +30571,7 @@
       </c>
       <c r="B61" s="4092"/>
       <c r="C61" s="4093" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D61" s="4094"/>
       <c r="E61" s="4095"/>
@@ -30582,19 +30585,19 @@
       <c r="M61" s="4103"/>
       <c r="N61" s="4104"/>
       <c r="O61" s="4105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P61" s="4106"/>
       <c r="Q61" s="4107"/>
       <c r="R61" s="4108"/>
       <c r="S61" s="4109" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T61" s="4110"/>
       <c r="U61" s="4111"/>
       <c r="V61" s="4112"/>
       <c r="W61" s="4113" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X61" s="4114"/>
       <c r="Y61" s="4115"/>
@@ -30603,121 +30606,121 @@
       <c r="AB61" s="4118"/>
       <c r="AC61" s="4119"/>
       <c r="AD61" s="4120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE61" s="4121"/>
       <c r="AF61" s="4122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG61" s="4123"/>
       <c r="AH61" s="6488" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI61" s="4125"/>
       <c r="AJ61" s="6489" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK61" s="4127"/>
       <c r="AL61" s="4128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM61" s="4129"/>
       <c r="AN61" s="4130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO61" s="4131"/>
       <c r="AP61" s="4132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ61" s="4133"/>
       <c r="AR61" s="4134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS61" s="4135"/>
       <c r="AT61" s="4136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU61" s="4137"/>
       <c r="AV61" s="6490" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW61" s="4139"/>
       <c r="AX61" s="6491" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY61" s="4141"/>
       <c r="AZ61" s="4142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA61" s="4143"/>
       <c r="BB61" s="4144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC61" s="4145"/>
       <c r="BD61" s="4146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE61" s="4147"/>
       <c r="BF61" s="4148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG61" s="4149"/>
       <c r="BH61" s="4150" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI61" s="4151"/>
       <c r="BJ61" s="4152"/>
       <c r="BK61" s="4153"/>
       <c r="BL61" s="4154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM61" s="4155"/>
       <c r="BN61" s="6492" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO61" s="4157"/>
       <c r="BP61" s="6493" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ61" s="4159"/>
       <c r="BR61" s="4160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS61" s="4161"/>
       <c r="BT61" s="4162" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU61" s="4163"/>
       <c r="BV61" s="4164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW61" s="4165"/>
       <c r="BX61" s="4166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY61" s="4167"/>
       <c r="BZ61" s="6494" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA61" s="4169"/>
       <c r="CB61" s="6495" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC61" s="4171"/>
       <c r="CD61" s="6496" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE61" s="4173"/>
       <c r="CF61" s="4174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG61" s="4175"/>
       <c r="CH61" s="4176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI61" s="4177"/>
       <c r="CJ61" s="4178" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK61" s="4179"/>
       <c r="CL61" s="4180"/>
@@ -30727,7 +30730,7 @@
       <c r="CP61" s="4184"/>
       <c r="CQ61" s="4185"/>
       <c r="CR61" s="4186" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS61" s="4187"/>
       <c r="CT61" s="4188"/>
@@ -30772,11 +30775,11 @@
       </c>
       <c r="AG62" s="4222"/>
       <c r="AH62" s="6488" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI62" s="4224"/>
       <c r="AJ62" s="6489" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK62" s="4226"/>
       <c r="AL62" s="4227" t="n">
@@ -30800,11 +30803,11 @@
       </c>
       <c r="AU62" s="4236"/>
       <c r="AV62" s="6490" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW62" s="4238"/>
       <c r="AX62" s="6491" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY62" s="4240"/>
       <c r="AZ62" s="4241" t="n">
@@ -30832,11 +30835,11 @@
       </c>
       <c r="BM62" s="4254"/>
       <c r="BN62" s="6492" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO62" s="4256"/>
       <c r="BP62" s="6493" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ62" s="4258"/>
       <c r="BR62" s="4259" t="n">
@@ -30856,15 +30859,15 @@
       </c>
       <c r="BY62" s="4266"/>
       <c r="BZ62" s="6494" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA62" s="4268"/>
       <c r="CB62" s="6495" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC62" s="4270"/>
       <c r="CD62" s="6496" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE62" s="4272"/>
       <c r="CF62" s="4273" t="n">
@@ -30896,7 +30899,7 @@
       </c>
       <c r="B63" s="4290"/>
       <c r="C63" s="4291" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D63" s="4292"/>
       <c r="E63" s="4293"/>
@@ -30910,19 +30913,19 @@
       <c r="M63" s="4301"/>
       <c r="N63" s="4302"/>
       <c r="O63" s="4303" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P63" s="4304"/>
       <c r="Q63" s="4305"/>
       <c r="R63" s="4306"/>
       <c r="S63" s="4307" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T63" s="4308"/>
       <c r="U63" s="4309"/>
       <c r="V63" s="4310"/>
       <c r="W63" s="4311" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X63" s="4312"/>
       <c r="Y63" s="4313"/>
@@ -30931,121 +30934,121 @@
       <c r="AB63" s="4316"/>
       <c r="AC63" s="4317"/>
       <c r="AD63" s="4318" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE63" s="4319"/>
       <c r="AF63" s="4320" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG63" s="4321"/>
       <c r="AH63" s="6497" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI63" s="4323"/>
       <c r="AJ63" s="6498" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK63" s="4325"/>
       <c r="AL63" s="4326" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM63" s="4327"/>
       <c r="AN63" s="4328" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO63" s="4329"/>
       <c r="AP63" s="4330" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ63" s="4331"/>
       <c r="AR63" s="4332" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS63" s="4333"/>
       <c r="AT63" s="4334" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU63" s="4335"/>
       <c r="AV63" s="6499" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW63" s="4337"/>
       <c r="AX63" s="6500" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY63" s="4339"/>
       <c r="AZ63" s="4340" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA63" s="4341"/>
       <c r="BB63" s="4342" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC63" s="4343"/>
       <c r="BD63" s="4344" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE63" s="4345"/>
       <c r="BF63" s="4346" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG63" s="4347"/>
       <c r="BH63" s="4348" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI63" s="4349"/>
       <c r="BJ63" s="4350"/>
       <c r="BK63" s="4351"/>
       <c r="BL63" s="4352" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM63" s="4353"/>
       <c r="BN63" s="6501" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO63" s="4355"/>
       <c r="BP63" s="6502" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ63" s="4357"/>
       <c r="BR63" s="4358" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS63" s="4359"/>
       <c r="BT63" s="4360" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU63" s="4361"/>
       <c r="BV63" s="4362" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW63" s="4363"/>
       <c r="BX63" s="4364" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY63" s="4365"/>
       <c r="BZ63" s="6503" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA63" s="4367"/>
       <c r="CB63" s="6504" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC63" s="4369"/>
       <c r="CD63" s="6505" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE63" s="4371"/>
       <c r="CF63" s="4372" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG63" s="4373"/>
       <c r="CH63" s="4374" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI63" s="4375"/>
       <c r="CJ63" s="4376" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK63" s="4377"/>
       <c r="CL63" s="4378"/>
@@ -31055,7 +31058,7 @@
       <c r="CP63" s="4382"/>
       <c r="CQ63" s="4383"/>
       <c r="CR63" s="4384" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS63" s="4385"/>
       <c r="CT63" s="4386"/>
@@ -31100,11 +31103,11 @@
       </c>
       <c r="AG64" s="4420"/>
       <c r="AH64" s="6497" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI64" s="4422"/>
       <c r="AJ64" s="6498" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK64" s="4424"/>
       <c r="AL64" s="4425" t="n">
@@ -31128,11 +31131,11 @@
       </c>
       <c r="AU64" s="4434"/>
       <c r="AV64" s="6499" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW64" s="4436"/>
       <c r="AX64" s="6500" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY64" s="4438"/>
       <c r="AZ64" s="4439" t="n">
@@ -31160,11 +31163,11 @@
       </c>
       <c r="BM64" s="4452"/>
       <c r="BN64" s="6501" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO64" s="4454"/>
       <c r="BP64" s="6502" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ64" s="4456"/>
       <c r="BR64" s="4457" t="n">
@@ -31184,15 +31187,15 @@
       </c>
       <c r="BY64" s="4464"/>
       <c r="BZ64" s="6503" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA64" s="4466"/>
       <c r="CB64" s="6504" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC64" s="4468"/>
       <c r="CD64" s="6505" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE64" s="4470"/>
       <c r="CF64" s="4471" t="n">
@@ -31224,7 +31227,7 @@
       </c>
       <c r="B65" s="4488"/>
       <c r="C65" s="4489" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D65" s="4490"/>
       <c r="E65" s="4491"/>
@@ -31238,19 +31241,19 @@
       <c r="M65" s="4499"/>
       <c r="N65" s="4500"/>
       <c r="O65" s="4501" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P65" s="4502"/>
       <c r="Q65" s="4503"/>
       <c r="R65" s="4504"/>
       <c r="S65" s="4505" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T65" s="4506"/>
       <c r="U65" s="4507"/>
       <c r="V65" s="4508"/>
       <c r="W65" s="4509" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X65" s="4510"/>
       <c r="Y65" s="4511"/>
@@ -31259,121 +31262,121 @@
       <c r="AB65" s="4514"/>
       <c r="AC65" s="4515"/>
       <c r="AD65" s="4516" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE65" s="4517"/>
       <c r="AF65" s="4518" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG65" s="4519"/>
       <c r="AH65" s="6506" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI65" s="4521"/>
       <c r="AJ65" s="6507" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK65" s="4523"/>
       <c r="AL65" s="4524" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM65" s="4525"/>
       <c r="AN65" s="4526" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO65" s="4527"/>
       <c r="AP65" s="4528" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ65" s="4529"/>
       <c r="AR65" s="4530" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS65" s="4531"/>
       <c r="AT65" s="4532" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU65" s="4533"/>
       <c r="AV65" s="6508" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW65" s="4535"/>
       <c r="AX65" s="6509" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY65" s="4537"/>
       <c r="AZ65" s="4538" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA65" s="4539"/>
       <c r="BB65" s="4540" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC65" s="4541"/>
       <c r="BD65" s="4542" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE65" s="4543"/>
       <c r="BF65" s="4544" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG65" s="4545"/>
       <c r="BH65" s="4546" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI65" s="4547"/>
       <c r="BJ65" s="4548"/>
       <c r="BK65" s="4549"/>
       <c r="BL65" s="4550" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM65" s="4551"/>
       <c r="BN65" s="6510" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO65" s="4553"/>
       <c r="BP65" s="6511" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ65" s="4555"/>
       <c r="BR65" s="4556" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS65" s="4557"/>
       <c r="BT65" s="4558" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU65" s="4559"/>
       <c r="BV65" s="4560" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW65" s="4561"/>
       <c r="BX65" s="4562" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY65" s="4563"/>
       <c r="BZ65" s="6512" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA65" s="4565"/>
       <c r="CB65" s="6513" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC65" s="4567"/>
       <c r="CD65" s="6514" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE65" s="4569"/>
       <c r="CF65" s="4570" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG65" s="4571"/>
       <c r="CH65" s="4572" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI65" s="4573"/>
       <c r="CJ65" s="4574" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK65" s="4575"/>
       <c r="CL65" s="4576"/>
@@ -31383,7 +31386,7 @@
       <c r="CP65" s="4580"/>
       <c r="CQ65" s="4581"/>
       <c r="CR65" s="4582" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS65" s="4583"/>
       <c r="CT65" s="4584"/>
@@ -31428,11 +31431,11 @@
       </c>
       <c r="AG66" s="4618"/>
       <c r="AH66" s="6506" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI66" s="4620"/>
       <c r="AJ66" s="6507" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK66" s="4622"/>
       <c r="AL66" s="4623" t="n">
@@ -31456,11 +31459,11 @@
       </c>
       <c r="AU66" s="4632"/>
       <c r="AV66" s="6508" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW66" s="4634"/>
       <c r="AX66" s="6509" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY66" s="4636"/>
       <c r="AZ66" s="4637" t="n">
@@ -31488,11 +31491,11 @@
       </c>
       <c r="BM66" s="4650"/>
       <c r="BN66" s="6510" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO66" s="4652"/>
       <c r="BP66" s="6511" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ66" s="4654"/>
       <c r="BR66" s="4655" t="n">
@@ -31512,15 +31515,15 @@
       </c>
       <c r="BY66" s="4662"/>
       <c r="BZ66" s="6512" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA66" s="4664"/>
       <c r="CB66" s="6513" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC66" s="4666"/>
       <c r="CD66" s="6514" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE66" s="4668"/>
       <c r="CF66" s="4669" t="n">
@@ -31552,7 +31555,7 @@
       </c>
       <c r="B67" s="4686"/>
       <c r="C67" s="4687" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D67" s="4688"/>
       <c r="E67" s="4689"/>
@@ -31566,19 +31569,19 @@
       <c r="M67" s="4697"/>
       <c r="N67" s="4698"/>
       <c r="O67" s="4699" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P67" s="4700"/>
       <c r="Q67" s="4701"/>
       <c r="R67" s="4702"/>
       <c r="S67" s="4703" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T67" s="4704"/>
       <c r="U67" s="4705"/>
       <c r="V67" s="4706"/>
       <c r="W67" s="4707" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="X67" s="4708"/>
       <c r="Y67" s="4709"/>
@@ -31587,121 +31590,121 @@
       <c r="AB67" s="4712"/>
       <c r="AC67" s="4713"/>
       <c r="AD67" s="4714" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE67" s="4715"/>
       <c r="AF67" s="4716" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG67" s="4717"/>
       <c r="AH67" s="6515" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI67" s="4719"/>
       <c r="AJ67" s="6516" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK67" s="4721"/>
       <c r="AL67" s="4722" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM67" s="4723"/>
       <c r="AN67" s="4724" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO67" s="4725"/>
       <c r="AP67" s="4726" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ67" s="4727"/>
       <c r="AR67" s="4728" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS67" s="4729"/>
       <c r="AT67" s="4730" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU67" s="4731"/>
       <c r="AV67" s="6517" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW67" s="4733"/>
       <c r="AX67" s="6518" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY67" s="4735"/>
       <c r="AZ67" s="4736" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA67" s="4737"/>
       <c r="BB67" s="4738" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC67" s="4739"/>
       <c r="BD67" s="4740" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE67" s="4741"/>
       <c r="BF67" s="4742" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG67" s="4743"/>
       <c r="BH67" s="4744" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI67" s="4745"/>
       <c r="BJ67" s="4746"/>
       <c r="BK67" s="4747"/>
       <c r="BL67" s="4748" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM67" s="4749"/>
       <c r="BN67" s="6519" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO67" s="4751"/>
       <c r="BP67" s="6520" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ67" s="4753"/>
       <c r="BR67" s="4754" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS67" s="4755"/>
       <c r="BT67" s="4756" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU67" s="4757"/>
       <c r="BV67" s="4758" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW67" s="4759"/>
       <c r="BX67" s="4760" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY67" s="4761"/>
       <c r="BZ67" s="6521" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA67" s="4763"/>
       <c r="CB67" s="6522" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC67" s="4765"/>
       <c r="CD67" s="6523" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE67" s="4767"/>
       <c r="CF67" s="4768" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG67" s="4769"/>
       <c r="CH67" s="4770" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI67" s="4771"/>
       <c r="CJ67" s="4772" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK67" s="4773"/>
       <c r="CL67" s="4774"/>
@@ -31711,7 +31714,7 @@
       <c r="CP67" s="4778"/>
       <c r="CQ67" s="4779"/>
       <c r="CR67" s="4780" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS67" s="4781"/>
       <c r="CT67" s="4782"/>
@@ -31756,11 +31759,11 @@
       </c>
       <c r="AG68" s="4816"/>
       <c r="AH68" s="6515" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI68" s="4818"/>
       <c r="AJ68" s="6516" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK68" s="4820"/>
       <c r="AL68" s="4821" t="n">
@@ -31784,11 +31787,11 @@
       </c>
       <c r="AU68" s="4830"/>
       <c r="AV68" s="6517" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW68" s="4832"/>
       <c r="AX68" s="6518" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY68" s="4834"/>
       <c r="AZ68" s="4835" t="n">
@@ -31816,11 +31819,11 @@
       </c>
       <c r="BM68" s="4848"/>
       <c r="BN68" s="6519" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO68" s="4850"/>
       <c r="BP68" s="6520" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ68" s="4852"/>
       <c r="BR68" s="4853" t="n">
@@ -31840,15 +31843,15 @@
       </c>
       <c r="BY68" s="4860"/>
       <c r="BZ68" s="6521" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA68" s="4862"/>
       <c r="CB68" s="6522" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC68" s="4864"/>
       <c r="CD68" s="6523" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE68" s="4866"/>
       <c r="CF68" s="4867" t="n">
@@ -31880,7 +31883,7 @@
       </c>
       <c r="B69" s="4884"/>
       <c r="C69" s="4885" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D69" s="4886"/>
       <c r="E69" s="4887"/>
@@ -31894,19 +31897,19 @@
       <c r="M69" s="4895"/>
       <c r="N69" s="4896"/>
       <c r="O69" s="4897" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P69" s="4898"/>
       <c r="Q69" s="4899"/>
       <c r="R69" s="4900"/>
       <c r="S69" s="4901" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="T69" s="4902"/>
       <c r="U69" s="4903"/>
       <c r="V69" s="4904"/>
       <c r="W69" s="4905" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X69" s="4906"/>
       <c r="Y69" s="4907"/>
@@ -31915,121 +31918,121 @@
       <c r="AB69" s="4910"/>
       <c r="AC69" s="4911"/>
       <c r="AD69" s="4912" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE69" s="4913"/>
       <c r="AF69" s="4914" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG69" s="4915"/>
       <c r="AH69" s="6524" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI69" s="4917"/>
       <c r="AJ69" s="6525" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK69" s="4919"/>
       <c r="AL69" s="4920" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM69" s="4921"/>
       <c r="AN69" s="4922" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO69" s="4923"/>
       <c r="AP69" s="4924" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ69" s="4925"/>
       <c r="AR69" s="4926" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS69" s="4927"/>
       <c r="AT69" s="4928" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU69" s="4929"/>
       <c r="AV69" s="6526" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW69" s="4931"/>
       <c r="AX69" s="6527" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY69" s="4933"/>
       <c r="AZ69" s="4934" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA69" s="4935"/>
       <c r="BB69" s="4936" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC69" s="4937"/>
       <c r="BD69" s="4938" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE69" s="4939"/>
       <c r="BF69" s="4940" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG69" s="4941"/>
       <c r="BH69" s="4942" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI69" s="4943"/>
       <c r="BJ69" s="4944"/>
       <c r="BK69" s="4945"/>
       <c r="BL69" s="4946" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM69" s="4947"/>
       <c r="BN69" s="6528" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO69" s="4949"/>
       <c r="BP69" s="6529" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ69" s="4951"/>
       <c r="BR69" s="4952" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS69" s="4953"/>
       <c r="BT69" s="4954" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU69" s="4955"/>
       <c r="BV69" s="4956" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW69" s="4957"/>
       <c r="BX69" s="4958" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY69" s="4959"/>
       <c r="BZ69" s="6530" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA69" s="4961"/>
       <c r="CB69" s="6531" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC69" s="4963"/>
       <c r="CD69" s="6532" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE69" s="4965"/>
       <c r="CF69" s="4966" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG69" s="4967"/>
       <c r="CH69" s="4968" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI69" s="4969"/>
       <c r="CJ69" s="4970" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK69" s="4971"/>
       <c r="CL69" s="4972"/>
@@ -32039,7 +32042,7 @@
       <c r="CP69" s="4976"/>
       <c r="CQ69" s="4977"/>
       <c r="CR69" s="4978" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS69" s="4979"/>
       <c r="CT69" s="4980"/>
@@ -32084,11 +32087,11 @@
       </c>
       <c r="AG70" s="5014"/>
       <c r="AH70" s="6524" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI70" s="5016"/>
       <c r="AJ70" s="6525" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK70" s="5018"/>
       <c r="AL70" s="5019" t="n">
@@ -32112,11 +32115,11 @@
       </c>
       <c r="AU70" s="5028"/>
       <c r="AV70" s="6526" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW70" s="5030"/>
       <c r="AX70" s="6527" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY70" s="5032"/>
       <c r="AZ70" s="5033" t="n">
@@ -32144,11 +32147,11 @@
       </c>
       <c r="BM70" s="5046"/>
       <c r="BN70" s="6528" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO70" s="5048"/>
       <c r="BP70" s="6529" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ70" s="5050"/>
       <c r="BR70" s="5051" t="n">
@@ -32168,15 +32171,15 @@
       </c>
       <c r="BY70" s="5058"/>
       <c r="BZ70" s="6530" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA70" s="5060"/>
       <c r="CB70" s="6531" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC70" s="5062"/>
       <c r="CD70" s="6532" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE70" s="5064"/>
       <c r="CF70" s="5065" t="n">
@@ -32208,7 +32211,7 @@
       </c>
       <c r="B71" s="5082"/>
       <c r="C71" s="5083" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D71" s="5084"/>
       <c r="E71" s="5085"/>
@@ -32222,19 +32225,19 @@
       <c r="M71" s="5093"/>
       <c r="N71" s="5094"/>
       <c r="O71" s="5095" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P71" s="5096"/>
       <c r="Q71" s="5097"/>
       <c r="R71" s="5098"/>
       <c r="S71" s="5099" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T71" s="5100"/>
       <c r="U71" s="5101"/>
       <c r="V71" s="5102"/>
       <c r="W71" s="5103" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X71" s="5104"/>
       <c r="Y71" s="5105"/>
@@ -32243,121 +32246,121 @@
       <c r="AB71" s="5108"/>
       <c r="AC71" s="5109"/>
       <c r="AD71" s="5110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE71" s="5111"/>
       <c r="AF71" s="5112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG71" s="5113"/>
       <c r="AH71" s="6533" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI71" s="5115"/>
       <c r="AJ71" s="6534" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK71" s="5117"/>
       <c r="AL71" s="5118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM71" s="5119"/>
       <c r="AN71" s="5120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO71" s="5121"/>
       <c r="AP71" s="5122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ71" s="5123"/>
       <c r="AR71" s="5124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS71" s="5125"/>
       <c r="AT71" s="5126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU71" s="5127"/>
       <c r="AV71" s="6535" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW71" s="5129"/>
       <c r="AX71" s="6536" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY71" s="5131"/>
       <c r="AZ71" s="5132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA71" s="5133"/>
       <c r="BB71" s="5134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC71" s="5135"/>
       <c r="BD71" s="5136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE71" s="5137"/>
       <c r="BF71" s="5138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG71" s="5139"/>
       <c r="BH71" s="5140" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BI71" s="5141"/>
       <c r="BJ71" s="5142"/>
       <c r="BK71" s="5143"/>
       <c r="BL71" s="5144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM71" s="5145"/>
       <c r="BN71" s="6537" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO71" s="5147"/>
       <c r="BP71" s="6538" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ71" s="5149"/>
       <c r="BR71" s="5150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS71" s="5151"/>
       <c r="BT71" s="5152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU71" s="5153"/>
       <c r="BV71" s="5154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW71" s="5155"/>
       <c r="BX71" s="5156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY71" s="5157"/>
       <c r="BZ71" s="6539" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA71" s="5159"/>
       <c r="CB71" s="6540" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC71" s="5161"/>
       <c r="CD71" s="6541" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE71" s="5163"/>
       <c r="CF71" s="5164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG71" s="5165"/>
       <c r="CH71" s="5166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI71" s="5167"/>
       <c r="CJ71" s="5168" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK71" s="5169"/>
       <c r="CL71" s="5170"/>
@@ -32367,7 +32370,7 @@
       <c r="CP71" s="5174"/>
       <c r="CQ71" s="5175"/>
       <c r="CR71" s="5176" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CS71" s="5177"/>
       <c r="CT71" s="5178"/>
@@ -32412,11 +32415,11 @@
       </c>
       <c r="AG72" s="5212"/>
       <c r="AH72" s="6533" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI72" s="5214"/>
       <c r="AJ72" s="6534" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK72" s="5216"/>
       <c r="AL72" s="5217" t="n">
@@ -32440,11 +32443,11 @@
       </c>
       <c r="AU72" s="5226"/>
       <c r="AV72" s="6535" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW72" s="5228"/>
       <c r="AX72" s="6536" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY72" s="5230"/>
       <c r="AZ72" s="5231" t="n">
@@ -32472,11 +32475,11 @@
       </c>
       <c r="BM72" s="5244"/>
       <c r="BN72" s="6537" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO72" s="5246"/>
       <c r="BP72" s="6538" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ72" s="5248"/>
       <c r="BR72" s="5249" t="n">
@@ -32496,15 +32499,15 @@
       </c>
       <c r="BY72" s="5256"/>
       <c r="BZ72" s="6539" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA72" s="5258"/>
       <c r="CB72" s="6540" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC72" s="5260"/>
       <c r="CD72" s="6541" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE72" s="5262"/>
       <c r="CF72" s="5263" t="n">
@@ -32550,19 +32553,19 @@
       <c r="M73" s="5291"/>
       <c r="N73" s="5292"/>
       <c r="O73" s="5293" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P73" s="5294"/>
       <c r="Q73" s="5295"/>
       <c r="R73" s="5296"/>
       <c r="S73" s="5297" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T73" s="5298"/>
       <c r="U73" s="5299"/>
       <c r="V73" s="5300"/>
       <c r="W73" s="5301" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X73" s="5302"/>
       <c r="Y73" s="5303"/>
@@ -32571,27 +32574,27 @@
       <c r="AB73" s="5306"/>
       <c r="AC73" s="5307"/>
       <c r="AD73" s="5308" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE73" s="5309"/>
       <c r="AF73" s="5310" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG73" s="5311"/>
       <c r="AH73" s="6542" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI73" s="5313"/>
       <c r="AJ73" s="6543" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK73" s="5315"/>
       <c r="AL73" s="5316" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM73" s="5317"/>
       <c r="AN73" s="5318" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO73" s="5319"/>
       <c r="AP73" s="5320"/>
@@ -32613,7 +32616,7 @@
       <c r="BF73" s="5336"/>
       <c r="BG73" s="5337"/>
       <c r="BH73" s="5338" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI73" s="5339"/>
       <c r="BJ73" s="5340"/>
@@ -32651,7 +32654,7 @@
       <c r="CP73" s="5372"/>
       <c r="CQ73" s="5373"/>
       <c r="CR73" s="5374" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="CS73" s="5375"/>
       <c r="CT73" s="5376"/>
@@ -32696,11 +32699,11 @@
       </c>
       <c r="AG74" s="5410"/>
       <c r="AH74" s="6542" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI74" s="5412"/>
       <c r="AJ74" s="6543" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK74" s="5414"/>
       <c r="AL74" s="5415" t="n">
@@ -32790,19 +32793,19 @@
       <c r="M75" s="5489"/>
       <c r="N75" s="5490"/>
       <c r="O75" s="5491" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P75" s="5492"/>
       <c r="Q75" s="5493"/>
       <c r="R75" s="5494"/>
       <c r="S75" s="5495" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T75" s="5496"/>
       <c r="U75" s="5497"/>
       <c r="V75" s="5498"/>
       <c r="W75" s="5499" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="X75" s="5500"/>
       <c r="Y75" s="5501"/>
@@ -32823,97 +32826,97 @@
       <c r="AN75" s="5516"/>
       <c r="AO75" s="5517"/>
       <c r="AP75" s="5518" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ75" s="5519"/>
       <c r="AR75" s="5520" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS75" s="5521"/>
       <c r="AT75" s="5522" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU75" s="5523"/>
       <c r="AV75" s="6544" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW75" s="5525"/>
       <c r="AX75" s="6545" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY75" s="5527"/>
       <c r="AZ75" s="5528" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA75" s="5529"/>
       <c r="BB75" s="5530" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC75" s="5531"/>
       <c r="BD75" s="5532" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE75" s="5533"/>
       <c r="BF75" s="5534" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG75" s="5535"/>
       <c r="BH75" s="5536" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BI75" s="5537"/>
       <c r="BJ75" s="5538"/>
       <c r="BK75" s="5539"/>
       <c r="BL75" s="5540" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM75" s="5541"/>
       <c r="BN75" s="6546" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO75" s="5543"/>
       <c r="BP75" s="6547" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ75" s="5545"/>
       <c r="BR75" s="5546" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS75" s="5547"/>
       <c r="BT75" s="5548" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU75" s="5549"/>
       <c r="BV75" s="5550" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW75" s="5551"/>
       <c r="BX75" s="5552" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY75" s="5553"/>
       <c r="BZ75" s="6548" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA75" s="5555"/>
       <c r="CB75" s="6549" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC75" s="5557"/>
       <c r="CD75" s="6550" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE75" s="5559"/>
       <c r="CF75" s="5560" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG75" s="5561"/>
       <c r="CH75" s="5562" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI75" s="5563"/>
       <c r="CJ75" s="5564" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK75" s="5565"/>
       <c r="CL75" s="5566"/>
@@ -32923,7 +32926,7 @@
       <c r="CP75" s="5570"/>
       <c r="CQ75" s="5571"/>
       <c r="CR75" s="5572" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CS75" s="5573"/>
       <c r="CT75" s="5574"/>
@@ -32984,11 +32987,11 @@
       </c>
       <c r="AU76" s="5622"/>
       <c r="AV76" s="6544" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW76" s="5624"/>
       <c r="AX76" s="6545" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY76" s="5626"/>
       <c r="AZ76" s="5627" t="n">
@@ -33016,11 +33019,11 @@
       </c>
       <c r="BM76" s="5640"/>
       <c r="BN76" s="6546" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO76" s="5642"/>
       <c r="BP76" s="6547" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ76" s="5644"/>
       <c r="BR76" s="5645" t="n">
@@ -33040,15 +33043,15 @@
       </c>
       <c r="BY76" s="5652"/>
       <c r="BZ76" s="6548" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA76" s="5654"/>
       <c r="CB76" s="6549" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC76" s="5656"/>
       <c r="CD76" s="6550" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE76" s="5658"/>
       <c r="CF76" s="5659" t="n">
@@ -33080,7 +33083,7 @@
       </c>
       <c r="B77" s="5676"/>
       <c r="C77" s="5677" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D77" s="5678"/>
       <c r="E77" s="5679"/>
@@ -33094,19 +33097,19 @@
       <c r="M77" s="5687"/>
       <c r="N77" s="5688"/>
       <c r="O77" s="5689" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P77" s="5690"/>
       <c r="Q77" s="5691"/>
       <c r="R77" s="5692"/>
       <c r="S77" s="5693" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T77" s="5694"/>
       <c r="U77" s="5695"/>
       <c r="V77" s="5696"/>
       <c r="W77" s="5697" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X77" s="5698"/>
       <c r="Y77" s="5699"/>
@@ -33115,27 +33118,27 @@
       <c r="AB77" s="5702"/>
       <c r="AC77" s="5703"/>
       <c r="AD77" s="5704" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE77" s="5705"/>
       <c r="AF77" s="5706" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG77" s="5707"/>
       <c r="AH77" s="6551" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI77" s="5709"/>
       <c r="AJ77" s="6552" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK77" s="5711"/>
       <c r="AL77" s="5712" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM77" s="5713"/>
       <c r="AN77" s="5714" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AO77" s="5715"/>
       <c r="AP77" s="5716"/>
@@ -33157,7 +33160,7 @@
       <c r="BF77" s="5732"/>
       <c r="BG77" s="5733"/>
       <c r="BH77" s="5734" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI77" s="5735"/>
       <c r="BJ77" s="5736"/>
@@ -33195,7 +33198,7 @@
       <c r="CP77" s="5768"/>
       <c r="CQ77" s="5769"/>
       <c r="CR77" s="5770" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="CS77" s="5771"/>
       <c r="CT77" s="5772"/>
@@ -33240,11 +33243,11 @@
       </c>
       <c r="AG78" s="5806"/>
       <c r="AH78" s="6551" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI78" s="5808"/>
       <c r="AJ78" s="6552" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK78" s="5810"/>
       <c r="AL78" s="5811" t="n">
@@ -33320,7 +33323,7 @@
       </c>
       <c r="B79" s="5874"/>
       <c r="C79" s="5875" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D79" s="5876"/>
       <c r="E79" s="5877"/>
@@ -33334,19 +33337,19 @@
       <c r="M79" s="5885"/>
       <c r="N79" s="5886"/>
       <c r="O79" s="5887" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P79" s="5888"/>
       <c r="Q79" s="5889"/>
       <c r="R79" s="5890"/>
       <c r="S79" s="5891" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T79" s="5892"/>
       <c r="U79" s="5893"/>
       <c r="V79" s="5894"/>
       <c r="W79" s="5895" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X79" s="5896"/>
       <c r="Y79" s="5897"/>
@@ -33367,97 +33370,97 @@
       <c r="AN79" s="5912"/>
       <c r="AO79" s="5913"/>
       <c r="AP79" s="5914" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ79" s="5915"/>
       <c r="AR79" s="5916" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS79" s="5917"/>
       <c r="AT79" s="5918" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU79" s="5919"/>
       <c r="AV79" s="6553" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW79" s="5921"/>
       <c r="AX79" s="6554" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY79" s="5923"/>
       <c r="AZ79" s="5924" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BA79" s="5925"/>
       <c r="BB79" s="5926" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC79" s="5927"/>
       <c r="BD79" s="5928" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE79" s="5929"/>
       <c r="BF79" s="5930" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG79" s="5931"/>
       <c r="BH79" s="5932" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BI79" s="5933"/>
       <c r="BJ79" s="5934"/>
       <c r="BK79" s="5935"/>
       <c r="BL79" s="5936" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BM79" s="5937"/>
       <c r="BN79" s="6555" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BO79" s="5939"/>
       <c r="BP79" s="6556" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BQ79" s="5941"/>
       <c r="BR79" s="5942" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BS79" s="5943"/>
       <c r="BT79" s="5944" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BU79" s="5945"/>
       <c r="BV79" s="5946" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BW79" s="5947"/>
       <c r="BX79" s="5948" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BY79" s="5949"/>
       <c r="BZ79" s="6557" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CA79" s="5951"/>
       <c r="CB79" s="6558" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CC79" s="5953"/>
       <c r="CD79" s="6559" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CE79" s="5955"/>
       <c r="CF79" s="5956" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CG79" s="5957"/>
       <c r="CH79" s="5958" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI79" s="5959"/>
       <c r="CJ79" s="5960" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK79" s="5961"/>
       <c r="CL79" s="5962"/>
@@ -33467,7 +33470,7 @@
       <c r="CP79" s="5966"/>
       <c r="CQ79" s="5967"/>
       <c r="CR79" s="5968" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CS79" s="5969"/>
       <c r="CT79" s="5970"/>
@@ -33528,11 +33531,11 @@
       </c>
       <c r="AU80" s="6018"/>
       <c r="AV80" s="6553" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW80" s="6020"/>
       <c r="AX80" s="6554" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY80" s="6022"/>
       <c r="AZ80" s="6023" t="n">
@@ -33560,11 +33563,11 @@
       </c>
       <c r="BM80" s="6036"/>
       <c r="BN80" s="6555" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO80" s="6038"/>
       <c r="BP80" s="6556" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ80" s="6040"/>
       <c r="BR80" s="6041" t="n">
@@ -33584,15 +33587,15 @@
       </c>
       <c r="BY80" s="6048"/>
       <c r="BZ80" s="6557" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA80" s="6050"/>
       <c r="CB80" s="6558" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC80" s="6052"/>
       <c r="CD80" s="6559" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE80" s="6054"/>
       <c r="CF80" s="6055" t="n">
@@ -33624,7 +33627,7 @@
       </c>
       <c r="B81" s="6072"/>
       <c r="C81" s="6073" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D81" s="6074"/>
       <c r="E81" s="6075"/>
@@ -33638,19 +33641,19 @@
       <c r="M81" s="6083"/>
       <c r="N81" s="6084"/>
       <c r="O81" s="6085" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P81" s="6086"/>
       <c r="Q81" s="6087"/>
       <c r="R81" s="6088"/>
       <c r="S81" s="6089" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T81" s="6090"/>
       <c r="U81" s="6091"/>
       <c r="V81" s="6092"/>
       <c r="W81" s="6093" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X81" s="6094"/>
       <c r="Y81" s="6095"/>
@@ -33659,121 +33662,121 @@
       <c r="AB81" s="6098"/>
       <c r="AC81" s="6099"/>
       <c r="AD81" s="6100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE81" s="6101"/>
       <c r="AF81" s="6102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG81" s="6103"/>
       <c r="AH81" s="6560" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI81" s="6105"/>
       <c r="AJ81" s="6561" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK81" s="6107"/>
       <c r="AL81" s="6108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM81" s="6109"/>
       <c r="AN81" s="6562" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AO81" s="6111"/>
       <c r="AP81" s="6563" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AQ81" s="6113"/>
       <c r="AR81" s="6114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS81" s="6115"/>
       <c r="AT81" s="6116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU81" s="6117"/>
       <c r="AV81" s="6564" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW81" s="6119"/>
       <c r="AX81" s="6565" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY81" s="6121"/>
       <c r="AZ81" s="6566" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BA81" s="6123"/>
       <c r="BB81" s="6567" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BC81" s="6125"/>
       <c r="BD81" s="6568" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BE81" s="6127"/>
       <c r="BF81" s="6569" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BG81" s="6129"/>
       <c r="BH81" s="6130" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BI81" s="6131"/>
       <c r="BJ81" s="6132"/>
       <c r="BK81" s="6133"/>
       <c r="BL81" s="6570" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BM81" s="6135"/>
       <c r="BN81" s="6571" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BO81" s="6137"/>
       <c r="BP81" s="6572" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BQ81" s="6139"/>
       <c r="BR81" s="6573" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BS81" s="6141"/>
       <c r="BT81" s="6574" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BU81" s="6143"/>
       <c r="BV81" s="6575" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BW81" s="6145"/>
       <c r="BX81" s="6576" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BY81" s="6147"/>
       <c r="BZ81" s="6577" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CA81" s="6149"/>
       <c r="CB81" s="6578" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CC81" s="6151"/>
       <c r="CD81" s="6579" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CE81" s="6153"/>
       <c r="CF81" s="6580" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CG81" s="6155"/>
       <c r="CH81" s="6156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI81" s="6157"/>
       <c r="CJ81" s="6158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK81" s="6159"/>
       <c r="CL81" s="6160"/>
@@ -33783,7 +33786,7 @@
       <c r="CP81" s="6164"/>
       <c r="CQ81" s="6165"/>
       <c r="CR81" s="6166" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CS81" s="6167"/>
       <c r="CT81" s="6168"/>
@@ -33828,11 +33831,11 @@
       </c>
       <c r="AG82" s="6587"/>
       <c r="AH82" s="6588" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI82" s="6587"/>
       <c r="AJ82" s="6588" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK82" s="6587"/>
       <c r="AL82" s="6587" t="n">
@@ -33840,11 +33843,11 @@
       </c>
       <c r="AM82" s="6587"/>
       <c r="AN82" s="6592" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AO82" s="6587"/>
       <c r="AP82" s="6592" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AQ82" s="6587"/>
       <c r="AR82" s="6587" t="n">
@@ -33856,27 +33859,27 @@
       </c>
       <c r="AU82" s="6587"/>
       <c r="AV82" s="6588" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW82" s="6587"/>
       <c r="AX82" s="6588" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AY82" s="6587"/>
       <c r="AZ82" s="6593" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BA82" s="6587"/>
       <c r="BB82" s="6593" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BC82" s="6587"/>
       <c r="BD82" s="6593" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BE82" s="6587"/>
       <c r="BF82" s="6593" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BG82" s="6587"/>
       <c r="BH82" s="6589"/>
@@ -33884,47 +33887,47 @@
       <c r="BJ82" s="6589"/>
       <c r="BK82" s="6589"/>
       <c r="BL82" s="6593" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BM82" s="6587"/>
       <c r="BN82" s="6593" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BO82" s="6587"/>
       <c r="BP82" s="6593" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BQ82" s="6587"/>
       <c r="BR82" s="6593" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BS82" s="6587"/>
       <c r="BT82" s="6593" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BU82" s="6587"/>
       <c r="BV82" s="6593" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BW82" s="6587"/>
       <c r="BX82" s="6593" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BY82" s="6587"/>
       <c r="BZ82" s="6593" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CA82" s="6587"/>
       <c r="CB82" s="6593" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC82" s="6587"/>
       <c r="CD82" s="6593" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CE82" s="6587"/>
       <c r="CF82" s="6593" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CG82" s="6587"/>
       <c r="CH82" s="6587" t="n">
@@ -34685,7 +34688,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="54" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C90" s="54"/>
       <c r="D90" s="54"/>
